--- a/computed_files/1_8_cf4/mie_results_vle_fluid.xlsx
+++ b/computed_files/1_8_cf4/mie_results_vle_fluid.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>lambda_r</t>
   </si>
@@ -77,7 +77,13 @@
     <t>tcondl_vle_model</t>
   </si>
   <si>
+    <t>tcondl_vle_model_ann</t>
+  </si>
+  <si>
     <t>speed_of_sound_liq_vle_model</t>
+  </si>
+  <si>
+    <t>tcondl_vle_model_vib</t>
   </si>
 </sst>
 </file>
@@ -481,10 +487,10 @@
         <v>229.4911080211692</v>
       </c>
       <c r="E2">
-        <v>4036781.198944735</v>
+        <v>4036781.19894474</v>
       </c>
       <c r="F2">
-        <v>7445.203337671969</v>
+        <v>7445.203337672054</v>
       </c>
       <c r="G2">
         <v>4.365322564077733</v>
@@ -500,13 +506,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -546,8 +552,14 @@
       <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>106.7060877281833</v>
       </c>
@@ -585,10 +597,16 @@
         <v>0.09735030173921558</v>
       </c>
       <c r="M2">
+        <v>0.09732621255637319</v>
+      </c>
+      <c r="N2">
         <v>2385.476579787068</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="O2">
+        <v>2.408918284238831E-05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>107.9463172774955</v>
       </c>
@@ -626,10 +644,16 @@
         <v>0.09674185808891737</v>
       </c>
       <c r="M3">
+        <v>0.09671619705338524</v>
+      </c>
+      <c r="N3">
         <v>2079.74656935002</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="O3">
+        <v>2.566103553212492E-05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>109.1865468268077</v>
       </c>
@@ -667,10 +691,16 @@
         <v>0.09616862387108174</v>
       </c>
       <c r="M4">
+        <v>0.09614129692566289</v>
+      </c>
+      <c r="N4">
         <v>1876.842614168597</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="O4">
+        <v>2.732694541884688E-05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>110.4267763761199</v>
       </c>
@@ -708,10 +738,16 @@
         <v>0.09562863547635282</v>
       </c>
       <c r="M5">
+        <v>0.09559954380436239</v>
+      </c>
+      <c r="N5">
         <v>1729.966519351795</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="O5">
+        <v>2.909167199042407E-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>111.667005925432</v>
       </c>
@@ -749,10 +785,16 @@
         <v>0.09511980459796079</v>
       </c>
       <c r="M6">
+        <v>0.09508884435431457</v>
+      </c>
+      <c r="N6">
         <v>1617.446127763414</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="O6">
+        <v>3.09602436462181E-05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>112.9072354747442</v>
       </c>
@@ -790,10 +832,16 @@
         <v>0.09463997524041354</v>
       </c>
       <c r="M7">
+        <v>0.09460703726638904</v>
+      </c>
+      <c r="N7">
         <v>1527.705588021677</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="O7">
+        <v>3.29379740244898E-05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>114.1474650240564</v>
       </c>
@@ -831,10 +879,16 @@
         <v>0.09418697183815335</v>
       </c>
       <c r="M8">
+        <v>0.0941519413594205</v>
+      </c>
+      <c r="N8">
         <v>1453.935113094244</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="O8">
+        <v>3.50304787328449E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>115.3876945733686</v>
       </c>
@@ -872,10 +926,16 @@
         <v>0.09375863849418921</v>
       </c>
       <c r="M9">
+        <v>0.09372139480175622</v>
+      </c>
+      <c r="N9">
         <v>1391.838226007655</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="O9">
+        <v>3.724369243299241E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>116.6279241226808</v>
       </c>
@@ -913,18 +973,24 @@
         <v>0.09335286976618087</v>
       </c>
       <c r="M10">
+        <v>0.0933132858799571</v>
+      </c>
+      <c r="N10">
         <v>1338.556086330156</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="O10">
+        <v>3.958388622377099E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>117.8681536719929</v>
       </c>
       <c r="B11">
-        <v>8338.1741732179</v>
+        <v>8338.174173217913</v>
       </c>
       <c r="C11">
-        <v>8.554075118511099</v>
+        <v>8.554075118511109</v>
       </c>
       <c r="D11">
         <v>20247.88408646397</v>
@@ -936,10 +1002,10 @@
         <v>12952.45240832243</v>
       </c>
       <c r="G11">
-        <v>3.258957865135583</v>
+        <v>3.258957865135609</v>
       </c>
       <c r="H11">
-        <v>91.3663835423276</v>
+        <v>91.36638354232763</v>
       </c>
       <c r="I11">
         <v>1.376666192124348E-09</v>
@@ -954,18 +1020,24 @@
         <v>0.09296763371492704</v>
       </c>
       <c r="M11">
+        <v>0.0929255760296686</v>
+      </c>
+      <c r="N11">
         <v>1292.105205202539</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="O11">
+        <v>4.205768525845118E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>119.1083832213051</v>
       </c>
       <c r="B12">
-        <v>9670.899916949187</v>
+        <v>9670.899916949182</v>
       </c>
       <c r="C12">
-        <v>9.824698280676948</v>
+        <v>9.824698280676943</v>
       </c>
       <c r="D12">
         <v>20129.30344380754</v>
@@ -995,18 +1067,24 @@
         <v>0.09260098810234491</v>
       </c>
       <c r="M12">
+        <v>0.09255631601582114</v>
+      </c>
+      <c r="N12">
         <v>1251.062177964509</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="O12">
+        <v>4.46720865237716E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>120.3486127706173</v>
       </c>
       <c r="B13">
-        <v>11170.49523373439</v>
+        <v>11170.4952337344</v>
       </c>
       <c r="C13">
-        <v>11.23953534516123</v>
+        <v>11.23953534516125</v>
       </c>
       <c r="D13">
         <v>20013.23293174012</v>
@@ -1036,36 +1114,42 @@
         <v>0.09225109070270893</v>
       </c>
       <c r="M13">
+        <v>0.09220365622600986</v>
+      </c>
+      <c r="N13">
         <v>1214.376726956415</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="O13">
+        <v>4.743447669907005E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>121.5888423199295</v>
       </c>
       <c r="B14">
-        <v>12851.76075938614</v>
+        <v>12851.76075938618</v>
       </c>
       <c r="C14">
-        <v>12.80960478579092</v>
+        <v>12.80960478579096</v>
       </c>
       <c r="D14">
-        <v>19899.54252701696</v>
+        <v>19899.54252701697</v>
       </c>
       <c r="E14">
         <v>13593.00540838899</v>
       </c>
       <c r="F14">
-        <v>12590.36027437718</v>
+        <v>12590.3602743772</v>
       </c>
       <c r="G14">
-        <v>5.573608136233599</v>
+        <v>5.573608136233627</v>
       </c>
       <c r="H14">
-        <v>84.27401030789031</v>
+        <v>84.27401030789038</v>
       </c>
       <c r="I14">
-        <v>1.461492618293831E-09</v>
+        <v>1.461492618293826E-09</v>
       </c>
       <c r="J14">
         <v>7.614412150255119E-10</v>
@@ -1074,21 +1158,27 @@
         <v>0.001135653669052942</v>
       </c>
       <c r="L14">
-        <v>0.09191620469373585</v>
+        <v>0.09191620469373589</v>
       </c>
       <c r="M14">
-        <v>1181.255625246014</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.0918658520437316</v>
+      </c>
+      <c r="N14">
+        <v>1181.255625246016</v>
+      </c>
+      <c r="O14">
+        <v>5.035265000428795E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15">
-        <v>122.8290718692416</v>
+        <v>122.8290718692417</v>
       </c>
       <c r="B15">
-        <v>14730.20730747065</v>
+        <v>14730.20730747066</v>
       </c>
       <c r="C15">
-        <v>14.54631253512843</v>
+        <v>14.54631253512845</v>
       </c>
       <c r="D15">
         <v>19788.10802170279</v>
@@ -1100,16 +1190,16 @@
         <v>12475.07836412351</v>
       </c>
       <c r="G15">
-        <v>6.111032313173361</v>
+        <v>6.111032313173225</v>
       </c>
       <c r="H15">
-        <v>82.03272866748665</v>
+        <v>82.0327286674865</v>
       </c>
       <c r="I15">
-        <v>1.491295571851483E-09</v>
+        <v>1.491295571851486E-09</v>
       </c>
       <c r="J15">
-        <v>7.818452232820729E-10</v>
+        <v>7.818452232820736E-10</v>
       </c>
       <c r="K15">
         <v>0.001116313653338668</v>
@@ -1118,10 +1208,16 @@
         <v>0.09159470004391071</v>
       </c>
       <c r="M15">
-        <v>1151.087811487232</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.09154126521797508</v>
+      </c>
+      <c r="N15">
+        <v>1151.087811487233</v>
+      </c>
+      <c r="O15">
+        <v>5.343482593563017E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>124.0693014185538</v>
       </c>
@@ -1159,59 +1255,71 @@
         <v>0.09128505172773367</v>
       </c>
       <c r="M16">
+        <v>0.09122836206095628</v>
+      </c>
+      <c r="N16">
         <v>1123.394481347936</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="O16">
+        <v>5.668966677739145E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17">
         <v>125.309530967866</v>
       </c>
       <c r="B17">
-        <v>19144.20724163518</v>
+        <v>19144.20724163522</v>
       </c>
       <c r="C17">
-        <v>18.56716514040558</v>
+        <v>18.56716514040562</v>
       </c>
       <c r="D17">
         <v>19571.53685658177</v>
       </c>
       <c r="E17">
-        <v>13282.19342664478</v>
+        <v>13282.19342664476</v>
       </c>
       <c r="F17">
-        <v>12252.09295994534</v>
+        <v>12252.09295994532</v>
       </c>
       <c r="G17">
-        <v>6.91538401324552</v>
+        <v>6.915384013245534</v>
       </c>
       <c r="H17">
-        <v>77.75422354168887</v>
+        <v>77.75422354168889</v>
       </c>
       <c r="I17">
-        <v>1.553455266021152E-09</v>
+        <v>1.553455266021153E-09</v>
       </c>
       <c r="J17">
-        <v>8.252519192407976E-10</v>
+        <v>8.252519192407991E-10</v>
       </c>
       <c r="K17">
-        <v>0.001073365521563212</v>
+        <v>0.001073365521563211</v>
       </c>
       <c r="L17">
-        <v>0.09098583549670788</v>
+        <v>0.09098583549670784</v>
       </c>
       <c r="M17">
+        <v>0.09092570920193982</v>
+      </c>
+      <c r="N17">
         <v>1097.794881705902</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="O17">
+        <v>6.012629476801909E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18">
         <v>126.5497605171782</v>
       </c>
       <c r="B18">
-        <v>21714.28342695658</v>
+        <v>21714.28342695657</v>
       </c>
       <c r="C18">
-        <v>20.87600311423697</v>
+        <v>20.87600311423696</v>
       </c>
       <c r="D18">
         <v>19466.17778281157</v>
@@ -1223,10 +1331,10 @@
         <v>12144.19565538008</v>
       </c>
       <c r="G18">
-        <v>7.204313663383966</v>
+        <v>7.204313663383995</v>
       </c>
       <c r="H18">
-        <v>75.72105541925936</v>
+        <v>75.7210554192593</v>
       </c>
       <c r="I18">
         <v>1.585907254359905E-09</v>
@@ -1238,21 +1346,27 @@
         <v>0.001049902178469153</v>
       </c>
       <c r="L18">
-        <v>0.0906957218228511</v>
+        <v>0.09069572182285114</v>
       </c>
       <c r="M18">
-        <v>1073.982290111034</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.09063196751406309</v>
+      </c>
+      <c r="N18">
+        <v>1073.982290111033</v>
+      </c>
+      <c r="O18">
+        <v>6.375430878804316E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19">
         <v>127.7899900664904</v>
       </c>
       <c r="B19">
-        <v>24550.57088968274</v>
+        <v>24550.57088968273</v>
       </c>
       <c r="C19">
-        <v>23.40085593762668</v>
+        <v>23.40085593762667</v>
       </c>
       <c r="D19">
         <v>19362.62917293505</v>
@@ -1282,10 +1396,16 @@
         <v>0.0904134685220879</v>
       </c>
       <c r="M19">
+        <v>0.09034588472166062</v>
+      </c>
+      <c r="N19">
         <v>1051.706782915551</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="O19">
+        <v>6.75838004272733E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20">
         <v>129.0302196158025</v>
       </c>
@@ -1323,36 +1443,42 @@
         <v>0.09013791246297854</v>
       </c>
       <c r="M20">
+        <v>0.09006628709369975</v>
+      </c>
+      <c r="N20">
         <v>1030.762637827283</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="O20">
+        <v>7.162536927879911E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21">
         <v>130.2704491651147</v>
       </c>
       <c r="B21">
-        <v>31098.30943152804</v>
+        <v>31098.30943152811</v>
       </c>
       <c r="C21">
-        <v>29.15199836755823</v>
+        <v>29.15199836755829</v>
       </c>
       <c r="D21">
         <v>19160.56720039741</v>
       </c>
       <c r="E21">
-        <v>12898.8249074859</v>
+        <v>12898.82490748591</v>
       </c>
       <c r="F21">
-        <v>11833.68370281899</v>
+        <v>11833.68370281901</v>
       </c>
       <c r="G21">
-        <v>7.726306238555831</v>
+        <v>7.726306238555832</v>
       </c>
       <c r="H21">
-        <v>70.05864583075837</v>
+        <v>70.05864583075831</v>
       </c>
       <c r="I21">
-        <v>1.689376715489314E-09</v>
+        <v>1.68937671548931E-09</v>
       </c>
       <c r="J21">
         <v>9.236532310128321E-10</v>
@@ -1361,21 +1487,27 @@
         <v>0.0009727368070135495</v>
       </c>
       <c r="L21">
-        <v>0.08986796067549391</v>
+        <v>0.08986796067549395</v>
       </c>
       <c r="M21">
-        <v>1010.978968185289</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.0897920705381958</v>
+      </c>
+      <c r="N21">
+        <v>1010.97896818529</v>
+      </c>
+      <c r="O21">
+        <v>7.589013729815316E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22">
         <v>131.5106787144269</v>
       </c>
       <c r="B22">
-        <v>34849.67755938791</v>
+        <v>34849.6775593879</v>
       </c>
       <c r="C22">
-        <v>32.40588031304259</v>
+        <v>32.40588031304258</v>
       </c>
       <c r="D22">
         <v>19061.86547111919</v>
@@ -1387,77 +1519,89 @@
         <v>11734.23443468723</v>
       </c>
       <c r="G22">
-        <v>7.80984509296728</v>
+        <v>7.809845092967339</v>
       </c>
       <c r="H22">
-        <v>68.31788061963397</v>
+        <v>68.31788061963401</v>
       </c>
       <c r="I22">
-        <v>1.726094657345782E-09</v>
+        <v>1.726094657345781E-09</v>
       </c>
       <c r="J22">
         <v>9.509343047353111E-10</v>
       </c>
       <c r="K22">
-        <v>0.0009451691631329104</v>
+        <v>0.0009451691631329096</v>
       </c>
       <c r="L22">
         <v>0.0896025810967289</v>
       </c>
       <c r="M22">
-        <v>992.2126540161223</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.08952219133467122</v>
+      </c>
+      <c r="N22">
+        <v>992.2126540161219</v>
+      </c>
+      <c r="O22">
+        <v>8.038976205767955E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23">
         <v>132.7509082637391</v>
       </c>
       <c r="B23">
-        <v>38947.06951035962</v>
+        <v>38947.06951035956</v>
       </c>
       <c r="C23">
-        <v>35.9309597889085</v>
+        <v>35.93095978890845</v>
       </c>
       <c r="D23">
         <v>18964.59698886244</v>
       </c>
       <c r="E23">
-        <v>12718.53133492868</v>
+        <v>12718.5313349287</v>
       </c>
       <c r="F23">
-        <v>11636.64319951207</v>
+        <v>11636.64319951209</v>
       </c>
       <c r="G23">
-        <v>7.858385126614053</v>
+        <v>7.858385126614098</v>
       </c>
       <c r="H23">
-        <v>66.65013031299442</v>
+        <v>66.65013031299436</v>
       </c>
       <c r="I23">
-        <v>1.764029864750386E-09</v>
+        <v>1.764029864750384E-09</v>
       </c>
       <c r="J23">
-        <v>9.793853253862218E-10</v>
+        <v>9.79385325386221E-10</v>
       </c>
       <c r="K23">
-        <v>0.0009169166844215721</v>
+        <v>0.0009169166844215733</v>
       </c>
       <c r="L23">
         <v>0.08934079312604555</v>
       </c>
       <c r="M23">
-        <v>974.3429335334361</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.08925565667732649</v>
+      </c>
+      <c r="N23">
+        <v>974.3429335334354</v>
+      </c>
+      <c r="O23">
+        <v>8.513644871905632E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24">
         <v>133.9911378130513</v>
       </c>
       <c r="B24">
-        <v>43412.04652008405</v>
+        <v>43412.04652008418</v>
       </c>
       <c r="C24">
-        <v>39.7419266343421</v>
+        <v>39.74192663434221</v>
       </c>
       <c r="D24">
         <v>18868.67620987633</v>
@@ -1487,18 +1631,24 @@
         <v>0.08908165811071884</v>
       </c>
       <c r="M24">
+        <v>0.08899151515017756</v>
+      </c>
+      <c r="N24">
         <v>957.2672137436814</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="O24">
+        <v>9.014296054129009E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25">
         <v>135.2313673623634</v>
       </c>
       <c r="B25">
-        <v>48266.78972287206</v>
+        <v>48266.78972287203</v>
       </c>
       <c r="C25">
-        <v>43.85383030872477</v>
+        <v>43.85383030872475</v>
       </c>
       <c r="D25">
         <v>18774.02065367024</v>
@@ -1528,18 +1678,24 @@
         <v>0.08882426984374904</v>
       </c>
       <c r="M25">
+        <v>0.08872884721601135</v>
+      </c>
+      <c r="N25">
         <v>940.8977887989805</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="O25">
+        <v>9.542262773769259E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26">
         <v>136.4715969116756</v>
       </c>
       <c r="B26">
-        <v>53534.08775397741</v>
+        <v>53534.08775397738</v>
       </c>
       <c r="C26">
-        <v>48.28208293644932</v>
+        <v>48.28208293644929</v>
       </c>
       <c r="D26">
         <v>18680.5507016771</v>
@@ -1569,18 +1725,24 @@
         <v>0.08856774512682955</v>
       </c>
       <c r="M26">
+        <v>0.08846675577233591</v>
+      </c>
+      <c r="N26">
         <v>925.1592430000516</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="O26">
+        <v>0.0001009893544936426</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27">
         <v>137.7118264609878</v>
       </c>
       <c r="B27">
-        <v>59237.32403464503</v>
+        <v>59237.32403464507</v>
       </c>
       <c r="C27">
-        <v>53.0424635895036</v>
+        <v>53.04246358950363</v>
       </c>
       <c r="D27">
         <v>18588.18940546809</v>
@@ -1610,10 +1772,16 @@
         <v>0.08831121443215509</v>
       </c>
       <c r="M27">
+        <v>0.08820435680819738</v>
+      </c>
+      <c r="N27">
         <v>909.9863763087531</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="O27">
+        <v>0.0001068576239577029</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28">
         <v>138.9520560103</v>
       </c>
@@ -1627,83 +1795,95 @@
         <v>18496.86230372976</v>
       </c>
       <c r="E28">
-        <v>12294.19866425433</v>
+        <v>12294.19866425432</v>
       </c>
       <c r="F28">
         <v>11173.07062620922</v>
       </c>
       <c r="G28">
-        <v>7.735638085044836</v>
+        <v>7.735638085044821</v>
       </c>
       <c r="H28">
         <v>59.37937203843715</v>
       </c>
       <c r="I28">
-        <v>1.974466944367157E-09</v>
+        <v>1.974466944367155E-09</v>
       </c>
       <c r="J28">
         <v>1.141048182469846E-09</v>
       </c>
       <c r="K28">
-        <v>0.0007710589293604457</v>
+        <v>0.000771058929360447</v>
       </c>
       <c r="L28">
         <v>0.08805381268547474</v>
       </c>
       <c r="M28">
-        <v>895.3225329854952</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>0.08794077018445261</v>
+      </c>
+      <c r="N28">
+        <v>895.3225329854956</v>
+      </c>
+      <c r="O28">
+        <v>0.0001130425010221381</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29">
         <v>140.1922855596121</v>
       </c>
       <c r="B29">
-        <v>72048.04086241547</v>
+        <v>72048.04086241448</v>
       </c>
       <c r="C29">
-        <v>63.62459461702085</v>
+        <v>63.62459461701995</v>
       </c>
       <c r="D29">
         <v>18406.49724725568</v>
       </c>
       <c r="E29">
-        <v>12213.03293234472</v>
+        <v>12213.03293234473</v>
       </c>
       <c r="F29">
-        <v>11084.55427858964</v>
+        <v>11084.55427858965</v>
       </c>
       <c r="G29">
-        <v>7.662995411991185</v>
+        <v>7.662995411991153</v>
       </c>
       <c r="H29">
-        <v>58.13131493822493</v>
+        <v>58.13131493822488</v>
       </c>
       <c r="I29">
-        <v>2.021270588000598E-09</v>
+        <v>2.021270588000594E-09</v>
       </c>
       <c r="J29">
         <v>1.177655278405408E-09</v>
       </c>
       <c r="K29">
-        <v>0.0007421171885350696</v>
+        <v>0.00074211718853507</v>
       </c>
       <c r="L29">
-        <v>0.08779467018830567</v>
+        <v>0.08779467018830571</v>
       </c>
       <c r="M29">
-        <v>881.1182443851577</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>0.08767511055559025</v>
+      </c>
+      <c r="N29">
+        <v>881.1182443851584</v>
+      </c>
+      <c r="O29">
+        <v>0.0001195596327154596</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30">
         <v>141.4325151089243</v>
       </c>
       <c r="B30">
-        <v>79205.14431494896</v>
+        <v>79205.14431494882</v>
       </c>
       <c r="C30">
-        <v>69.4797943971833</v>
+        <v>69.47979439718317</v>
       </c>
       <c r="D30">
         <v>18317.02423124259</v>
@@ -1712,60 +1892,66 @@
         <v>12132.86846032957</v>
       </c>
       <c r="F30">
-        <v>10997.21880096293</v>
+        <v>10997.21880096294</v>
       </c>
       <c r="G30">
-        <v>7.580775995610902</v>
+        <v>7.580775995610918</v>
       </c>
       <c r="H30">
-        <v>56.94901440438014</v>
+        <v>56.94901440438015</v>
       </c>
       <c r="I30">
-        <v>2.069858783063005E-09</v>
+        <v>2.069858783062997E-09</v>
       </c>
       <c r="J30">
-        <v>1.215825061083013E-09</v>
+        <v>1.215825061083012E-09</v>
       </c>
       <c r="K30">
-        <v>0.0007136108622621136</v>
+        <v>0.0007136108622621151</v>
       </c>
       <c r="L30">
-        <v>0.08753290369843138</v>
+        <v>0.08753290369843141</v>
       </c>
       <c r="M30">
-        <v>867.3301188719809</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>0.08740647845239193</v>
+      </c>
+      <c r="N30">
+        <v>867.3301188719822</v>
+      </c>
+      <c r="O30">
+        <v>0.0001264252460394773</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31">
         <v>142.6727446582365</v>
       </c>
       <c r="B31">
-        <v>86897.40494109144</v>
+        <v>86897.40494109152</v>
       </c>
       <c r="C31">
-        <v>75.73403877445492</v>
+        <v>75.73403877445497</v>
       </c>
       <c r="D31">
-        <v>18228.37523421429</v>
+        <v>18228.37523421428</v>
       </c>
       <c r="E31">
-        <v>12053.60929433064</v>
+        <v>12053.60929433062</v>
       </c>
       <c r="F31">
-        <v>10910.97421512707</v>
+        <v>10910.97421512706</v>
       </c>
       <c r="G31">
-        <v>7.491093309705598</v>
+        <v>7.491093309705647</v>
       </c>
       <c r="H31">
-        <v>55.83110551148643</v>
+        <v>55.83110551148654</v>
       </c>
       <c r="I31">
-        <v>2.120334702478313E-09</v>
+        <v>2.120334702478316E-09</v>
       </c>
       <c r="J31">
-        <v>1.255619409441306E-09</v>
+        <v>1.255619409441307E-09</v>
       </c>
       <c r="K31">
         <v>0.0006856719773363222</v>
@@ -1774,24 +1960,30 @@
         <v>0.08726760769377614</v>
       </c>
       <c r="M31">
-        <v>853.9199278120769</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>0.08713395155067938</v>
+      </c>
+      <c r="N31">
+        <v>853.9199278120766</v>
+      </c>
+      <c r="O31">
+        <v>0.0001336561430967668</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32">
         <v>143.9129742075487</v>
       </c>
       <c r="B32">
-        <v>95150.98163522556</v>
+        <v>95150.98163522544</v>
       </c>
       <c r="C32">
-        <v>82.4050514424372</v>
+        <v>82.4050514424371</v>
       </c>
       <c r="D32">
         <v>18140.48406292618</v>
       </c>
       <c r="E32">
-        <v>11975.1613962796</v>
+        <v>11975.16139627959</v>
       </c>
       <c r="F32">
         <v>10825.73248793396</v>
@@ -1815,18 +2007,24 @@
         <v>0.08699784585468474</v>
       </c>
       <c r="M32">
+        <v>0.08685657616131311</v>
+      </c>
+      <c r="N32">
         <v>840.8538484067851</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="O32">
+        <v>0.000141269693371636</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33">
-        <v>145.1532037568608</v>
+        <v>145.1532037568609</v>
       </c>
       <c r="B33">
-        <v>103992.5477007404</v>
+        <v>103992.5477007405</v>
       </c>
       <c r="C33">
-        <v>89.51097664118491</v>
+        <v>89.51097664118497</v>
       </c>
       <c r="D33">
         <v>18053.28620262996</v>
@@ -1838,36 +2036,42 @@
         <v>10741.40755323615</v>
       </c>
       <c r="G33">
-        <v>7.296504745864758</v>
+        <v>7.296504745864824</v>
       </c>
       <c r="H33">
-        <v>53.78292496407506</v>
+        <v>53.78292496407514</v>
       </c>
       <c r="I33">
-        <v>2.227398018496894E-09</v>
+        <v>2.227398018496897E-09</v>
       </c>
       <c r="J33">
-        <v>1.340335850726548E-09</v>
+        <v>1.340335850726551E-09</v>
       </c>
       <c r="K33">
-        <v>0.0006319462068221792</v>
+        <v>0.0006319462068221787</v>
       </c>
       <c r="L33">
-        <v>0.0867226428128836</v>
+        <v>0.08672264281288357</v>
       </c>
       <c r="M33">
-        <v>828.1018329319101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>0.08657335898983484</v>
+      </c>
+      <c r="N33">
+        <v>828.1018329319093</v>
+      </c>
+      <c r="O33">
+        <v>0.0001492838230487224</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34">
-        <v>146.393433306173</v>
+        <v>146.3934333061731</v>
       </c>
       <c r="B34">
-        <v>113449.277106429</v>
+        <v>113449.2771064291</v>
       </c>
       <c r="C34">
-        <v>97.07039312112398</v>
+        <v>97.0703931211241</v>
       </c>
       <c r="D34">
         <v>17966.71867210025</v>
@@ -1876,39 +2080,45 @@
         <v>11820.33292736014</v>
       </c>
       <c r="F34">
-        <v>10657.91531523032</v>
+        <v>10657.91531523031</v>
       </c>
       <c r="G34">
-        <v>7.194622399789024</v>
+        <v>7.194622399789042</v>
       </c>
       <c r="H34">
-        <v>52.84988773351251</v>
+        <v>52.84988773351245</v>
       </c>
       <c r="I34">
-        <v>2.284229265706191E-09</v>
+        <v>2.284229265706193E-09</v>
       </c>
       <c r="J34">
-        <v>1.385388065202049E-09</v>
+        <v>1.38538806520205E-09</v>
       </c>
       <c r="K34">
-        <v>0.0006063410424393328</v>
+        <v>0.000606341042439332</v>
       </c>
       <c r="L34">
         <v>0.08644097623140756</v>
       </c>
       <c r="M34">
-        <v>815.6370805748875</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>0.08628325923012922</v>
+      </c>
+      <c r="N34">
+        <v>815.6370805748865</v>
+      </c>
+      <c r="O34">
+        <v>0.0001577170012783448</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35">
         <v>147.6336628554852</v>
       </c>
       <c r="B35">
-        <v>123548.8307169236</v>
+        <v>123548.8307169218</v>
       </c>
       <c r="C35">
-        <v>105.1023296871835</v>
+        <v>105.1023296871819</v>
       </c>
       <c r="D35">
         <v>17880.71988284505</v>
@@ -1938,100 +2148,118 @@
         <v>0.08615176929808221</v>
       </c>
       <c r="M35">
+        <v>0.0859851810747555</v>
+      </c>
+      <c r="N35">
         <v>803.4355930974685</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="O35">
+        <v>0.0001665882233267088</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36">
         <v>148.8738924047974</v>
       </c>
       <c r="B36">
-        <v>134319.3425183288</v>
+        <v>134319.3425183306</v>
       </c>
       <c r="C36">
-        <v>113.6262823966439</v>
+        <v>113.6262823966455</v>
       </c>
       <c r="D36">
-        <v>17795.22950193773</v>
+        <v>17795.22950193772</v>
       </c>
       <c r="E36">
-        <v>11667.66933799406</v>
+        <v>11667.66933799407</v>
       </c>
       <c r="F36">
         <v>10493.10230599836</v>
       </c>
       <c r="G36">
-        <v>6.987814272960599</v>
+        <v>6.987814272960534</v>
       </c>
       <c r="H36">
-        <v>51.15913841394153</v>
+        <v>51.1591384139414</v>
       </c>
       <c r="I36">
-        <v>2.405167188923488E-09</v>
+        <v>2.405167188923501E-09</v>
       </c>
       <c r="J36">
-        <v>1.481214442101792E-09</v>
+        <v>1.481214442101796E-09</v>
       </c>
       <c r="K36">
-        <v>0.0005579667921061972</v>
+        <v>0.000557966792106195</v>
       </c>
       <c r="L36">
-        <v>0.08585388373535105</v>
+        <v>0.08585388373535101</v>
       </c>
       <c r="M36">
-        <v>791.4757994102416</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>0.08567796674476909</v>
+      </c>
+      <c r="N36">
+        <v>791.4757994102397</v>
+      </c>
+      <c r="O36">
+        <v>0.0001759169905819267</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37">
         <v>150.1141219541096</v>
       </c>
       <c r="B37">
-        <v>145789.4058582896</v>
+        <v>145789.40585829</v>
       </c>
       <c r="C37">
-        <v>122.6622334969306</v>
+        <v>122.6622334969309</v>
       </c>
       <c r="D37">
         <v>17710.18831792178</v>
       </c>
       <c r="E37">
-        <v>11591.93460310401</v>
+        <v>11591.93460310402</v>
       </c>
       <c r="F37">
         <v>10411.62300913245</v>
       </c>
       <c r="G37">
-        <v>6.884858398264333</v>
+        <v>6.884858398264352</v>
       </c>
       <c r="H37">
-        <v>50.39880820086476</v>
+        <v>50.39880820086474</v>
       </c>
       <c r="I37">
-        <v>2.469574442801469E-09</v>
+        <v>2.469574442801479E-09</v>
       </c>
       <c r="J37">
-        <v>1.53212538367777E-09</v>
+        <v>1.532125383677772E-09</v>
       </c>
       <c r="K37">
-        <v>0.0005352741907645026</v>
+        <v>0.0005352741907645015</v>
       </c>
       <c r="L37">
-        <v>0.08554611345100319</v>
+        <v>0.08554611345100316</v>
       </c>
       <c r="M37">
-        <v>779.7382371266318</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>0.08536039016357977</v>
+      </c>
+      <c r="N37">
+        <v>779.7382371266301</v>
+      </c>
+      <c r="O37">
+        <v>0.0001857232874233959</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38">
         <v>151.3543515034218</v>
       </c>
       <c r="B38">
-        <v>157988.0597181018</v>
+        <v>157988.059718102</v>
       </c>
       <c r="C38">
-        <v>132.2306722045961</v>
+        <v>132.2306722045962</v>
       </c>
       <c r="D38">
         <v>17625.53810924936</v>
@@ -2040,7 +2268,7 @@
         <v>11516.48700211025</v>
       </c>
       <c r="F38">
-        <v>10330.65926748926</v>
+        <v>10330.65926748925</v>
       </c>
       <c r="G38">
         <v>6.783287916622244</v>
@@ -2061,21 +2289,27 @@
         <v>0.08522717897738329</v>
       </c>
       <c r="M38">
+        <v>0.08503115142238103</v>
+      </c>
+      <c r="N38">
         <v>768.2052814844599</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="O38">
+        <v>0.0001960275550022587</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39">
-        <v>152.5945810527339</v>
+        <v>152.594581052734</v>
       </c>
       <c r="B39">
-        <v>170944.7750337354</v>
+        <v>170944.7750337358</v>
       </c>
       <c r="C39">
-        <v>142.3526174449696</v>
+        <v>142.35261744497</v>
       </c>
       <c r="D39">
-        <v>17541.22151472181</v>
+        <v>17541.2215147218</v>
       </c>
       <c r="E39">
         <v>11441.24552223299</v>
@@ -2084,36 +2318,42 @@
         <v>10250.13638348596</v>
       </c>
       <c r="G39">
-        <v>6.683770879180615</v>
+        <v>6.683770879180591</v>
       </c>
       <c r="H39">
-        <v>49.04202299638947</v>
+        <v>49.04202299638948</v>
       </c>
       <c r="I39">
-        <v>2.607103541306152E-09</v>
+        <v>2.607103541306156E-09</v>
       </c>
       <c r="J39">
-        <v>1.640291933049275E-09</v>
+        <v>1.640291933049278E-09</v>
       </c>
       <c r="K39">
-        <v>0.0004929534273914375</v>
+        <v>0.0004929534273914367</v>
       </c>
       <c r="L39">
         <v>0.08489572287073301</v>
       </c>
       <c r="M39">
-        <v>756.8609138427508</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>0.08468887220870901</v>
+      </c>
+      <c r="N39">
+        <v>756.8609138427506</v>
+      </c>
+      <c r="O39">
+        <v>0.0002068506620239938</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40">
         <v>153.8348106020461</v>
       </c>
       <c r="B40">
-        <v>184689.4410820899</v>
+        <v>184689.44108209</v>
       </c>
       <c r="C40">
-        <v>153.049642693221</v>
+        <v>153.0496426932212</v>
       </c>
       <c r="D40">
         <v>17457.18190540385</v>
@@ -2125,36 +2365,42 @@
         <v>10169.98137064248</v>
       </c>
       <c r="G40">
-        <v>6.586874039385805</v>
+        <v>6.586874039385806</v>
       </c>
       <c r="H40">
-        <v>48.44324289196602</v>
+        <v>48.44324289196607</v>
       </c>
       <c r="I40">
-        <v>2.680599838907381E-09</v>
+        <v>2.680599838907382E-09</v>
       </c>
       <c r="J40">
-        <v>1.697689826959085E-09</v>
+        <v>1.697689826959086E-09</v>
       </c>
       <c r="K40">
         <v>0.0004733159196414965</v>
       </c>
       <c r="L40">
-        <v>0.08455030626724973</v>
+        <v>0.08455030626724971</v>
       </c>
       <c r="M40">
-        <v>745.6905233976937</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>0.08433209239457924</v>
+      </c>
+      <c r="N40">
+        <v>745.6905233976938</v>
+      </c>
+      <c r="O40">
+        <v>0.0002182138726704733</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41">
         <v>155.0750401513583</v>
       </c>
       <c r="B41">
-        <v>199252.351949123</v>
+        <v>199252.3519491229</v>
       </c>
       <c r="C41">
-        <v>164.3439030830425</v>
+        <v>164.3439030830424</v>
       </c>
       <c r="D41">
         <v>17373.36325748401</v>
@@ -2184,10 +2430,16 @@
         <v>0.08418940681821335</v>
       </c>
       <c r="M41">
+        <v>0.08395926800636587</v>
+      </c>
+      <c r="N41">
         <v>734.6807369029907</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="O41">
+        <v>0.0002301388118474858</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42">
         <v>156.3152697006705</v>
       </c>
@@ -2198,139 +2450,157 @@
         <v>176.2581649794504</v>
       </c>
       <c r="D42">
-        <v>17289.71002555095</v>
+        <v>17289.71002555094</v>
       </c>
       <c r="E42">
-        <v>11215.97183111745</v>
+        <v>11215.97183111746</v>
       </c>
       <c r="F42">
         <v>10010.49110258465</v>
       </c>
       <c r="G42">
-        <v>6.40277142359436</v>
+        <v>6.40277142359437</v>
       </c>
       <c r="H42">
-        <v>47.39956223848841</v>
+        <v>47.39956223848845</v>
       </c>
       <c r="I42">
-        <v>2.838105625780933E-09</v>
+        <v>2.838105625780945E-09</v>
       </c>
       <c r="J42">
-        <v>1.819476445586185E-09</v>
+        <v>1.819476445586189E-09</v>
       </c>
       <c r="K42">
-        <v>0.0004369867024429338</v>
+        <v>0.0004369867024429324</v>
       </c>
       <c r="L42">
         <v>0.08381141825318721</v>
       </c>
       <c r="M42">
-        <v>723.8192720923795</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>0.08356877082519283</v>
+      </c>
+      <c r="N42">
+        <v>723.8192720923784</v>
+      </c>
+      <c r="O42">
+        <v>0.0002426474279943709</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43">
         <v>157.5554992499827</v>
       </c>
       <c r="B43">
-        <v>230956.0280053162</v>
+        <v>230956.0280053155</v>
       </c>
       <c r="C43">
-        <v>188.8158382041738</v>
+        <v>188.8158382041732</v>
       </c>
       <c r="D43">
-        <v>17206.16701566698</v>
+        <v>17206.16701566697</v>
       </c>
       <c r="E43">
         <v>11140.77628015616</v>
       </c>
       <c r="F43">
-        <v>9931.017707953915</v>
+        <v>9931.017707953906</v>
       </c>
       <c r="G43">
-        <v>6.316293368571312</v>
+        <v>6.316293368571313</v>
       </c>
       <c r="H43">
-        <v>46.95273040488418</v>
+        <v>46.95273040488422</v>
       </c>
       <c r="I43">
-        <v>2.922586741030682E-09</v>
+        <v>2.922586741030704E-09</v>
       </c>
       <c r="J43">
-        <v>1.884011963695389E-09</v>
+        <v>1.884011963695396E-09</v>
       </c>
       <c r="K43">
-        <v>0.000420232184453464</v>
+        <v>0.0004202321844534618</v>
       </c>
       <c r="L43">
-        <v>0.08341465184731901</v>
+        <v>0.08341465184731889</v>
       </c>
       <c r="M43">
-        <v>713.0948112187008</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>0.08315888989356843</v>
+      </c>
+      <c r="N43">
+        <v>713.0948112186984</v>
+      </c>
+      <c r="O43">
+        <v>0.000255761953750463</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44">
         <v>158.7957287992948</v>
       </c>
       <c r="B44">
-        <v>248159.2851892221</v>
+        <v>248159.2851892284</v>
       </c>
       <c r="C44">
-        <v>202.0410114478198</v>
+        <v>202.0410114478254</v>
       </c>
       <c r="D44">
         <v>17122.67925818783</v>
       </c>
       <c r="E44">
-        <v>11065.40464548963</v>
+        <v>11065.40464548962</v>
       </c>
       <c r="F44">
-        <v>9851.6357200932</v>
+        <v>9851.635720093202</v>
       </c>
       <c r="G44">
-        <v>6.233908990356977</v>
+        <v>6.233908990356943</v>
       </c>
       <c r="H44">
-        <v>46.55474159423736</v>
+        <v>46.5547415942373</v>
       </c>
       <c r="I44">
-        <v>3.011233888608564E-09</v>
+        <v>3.011233888608551E-09</v>
       </c>
       <c r="J44">
-        <v>1.951074604204829E-09</v>
+        <v>1.951074604204826E-09</v>
       </c>
       <c r="K44">
-        <v>0.0004043671982290402</v>
+        <v>0.0004043671982290415</v>
       </c>
       <c r="L44">
-        <v>0.0829973401039787</v>
+        <v>0.08299734010397875</v>
       </c>
       <c r="M44">
-        <v>702.4968918400424</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>0.08272783523919422</v>
+      </c>
+      <c r="N44">
+        <v>702.4968918400438</v>
+      </c>
+      <c r="O44">
+        <v>0.0002695048647845248</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45">
         <v>160.035958348607</v>
       </c>
       <c r="B45">
-        <v>266305.7449110689</v>
+        <v>266305.7449110735</v>
       </c>
       <c r="C45">
-        <v>215.9584905463681</v>
+        <v>215.9584905463721</v>
       </c>
       <c r="D45">
         <v>17039.19187852977</v>
       </c>
       <c r="E45">
-        <v>10989.78436000525</v>
+        <v>10989.78436000524</v>
       </c>
       <c r="F45">
         <v>9772.279429819904</v>
       </c>
       <c r="G45">
-        <v>6.155833596013536</v>
+        <v>6.155833596013537</v>
       </c>
       <c r="H45">
         <v>46.20482340462117</v>
@@ -2345,21 +2615,27 @@
         <v>0.0003893496201218332</v>
       </c>
       <c r="L45">
-        <v>0.08255764297865878</v>
+        <v>0.08255764297865884</v>
       </c>
       <c r="M45">
+        <v>0.08227374414138844</v>
+      </c>
+      <c r="N45">
         <v>692.0158120985139</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="O45">
+        <v>0.0002838988372704012</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46">
         <v>161.2761878979192</v>
       </c>
       <c r="B46">
-        <v>285427.5265690573</v>
+        <v>285427.5265690572</v>
       </c>
       <c r="C46">
-        <v>230.5938408646821</v>
+        <v>230.5938408646819</v>
       </c>
       <c r="D46">
         <v>16955.64996696321</v>
@@ -2368,162 +2644,186 @@
         <v>10913.84388022747</v>
       </c>
       <c r="F46">
-        <v>9692.884284556372</v>
+        <v>9692.884284556374</v>
       </c>
       <c r="G46">
-        <v>6.082236217742242</v>
+        <v>6.082236217742315</v>
       </c>
       <c r="H46">
         <v>45.90228764868643</v>
       </c>
       <c r="I46">
-        <v>3.20220321288778E-09</v>
+        <v>3.202203212887779E-09</v>
       </c>
       <c r="J46">
-        <v>2.093082132459753E-09</v>
+        <v>2.093082132459757E-09</v>
       </c>
       <c r="K46">
-        <v>0.0003751354845820076</v>
+        <v>0.0003751354845820073</v>
       </c>
       <c r="L46">
         <v>0.08209365703379855</v>
       </c>
       <c r="M46">
-        <v>681.6425487480564</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>0.08179469032945832</v>
+      </c>
+      <c r="N46">
+        <v>681.642548748056</v>
+      </c>
+      <c r="O46">
+        <v>0.0002989667043402247</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47">
         <v>162.5164174472314</v>
       </c>
       <c r="B47">
-        <v>305557.0760872922</v>
+        <v>305557.0760872836</v>
       </c>
       <c r="C47">
-        <v>245.9734335980125</v>
+        <v>245.9734335980049</v>
       </c>
       <c r="D47">
-        <v>16871.99844558993</v>
+        <v>16871.99844558992</v>
       </c>
       <c r="E47">
-        <v>10837.51255649971</v>
+        <v>10837.51255649973</v>
       </c>
       <c r="F47">
-        <v>9613.386774943921</v>
+        <v>9613.386774943925</v>
       </c>
       <c r="G47">
-        <v>6.013245768246396</v>
+        <v>6.013245768246405</v>
       </c>
       <c r="H47">
-        <v>45.64653411246236</v>
+        <v>45.64653411246238</v>
       </c>
       <c r="I47">
-        <v>3.305178540565992E-09</v>
+        <v>3.305178540566002E-09</v>
       </c>
       <c r="J47">
-        <v>2.168179135515511E-09</v>
+        <v>2.168179135515515E-09</v>
       </c>
       <c r="K47">
-        <v>0.0003616800313036709</v>
+        <v>0.00036168003130367</v>
       </c>
       <c r="L47">
-        <v>0.08160342792489307</v>
+        <v>0.08160342792489304</v>
       </c>
       <c r="M47">
-        <v>671.3686858945008</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>0.08128869651279039</v>
+      </c>
+      <c r="N47">
+        <v>671.3686858944999</v>
+      </c>
+      <c r="O47">
+        <v>0.000314731412102655</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48">
-        <v>163.7566469965435</v>
+        <v>163.7566469965436</v>
       </c>
       <c r="B48">
-        <v>326727.1536409038</v>
+        <v>326727.1536409169</v>
       </c>
       <c r="C48">
-        <v>262.1244967827562</v>
+        <v>262.1244967827677</v>
       </c>
       <c r="D48">
         <v>16788.18193237824</v>
       </c>
       <c r="E48">
-        <v>10760.72049469079</v>
+        <v>10760.72049469078</v>
       </c>
       <c r="F48">
-        <v>9533.724315293328</v>
+        <v>9533.724315293326</v>
       </c>
       <c r="G48">
-        <v>5.948956571208774</v>
+        <v>5.948956571208794</v>
       </c>
       <c r="H48">
         <v>45.4370543724182</v>
       </c>
       <c r="I48">
-        <v>3.413631735258522E-09</v>
+        <v>3.413631735258517E-09</v>
       </c>
       <c r="J48">
-        <v>2.2461075706257E-09</v>
+        <v>2.246107570625698E-09</v>
       </c>
       <c r="K48">
         <v>0.0003489385567165499</v>
       </c>
       <c r="L48">
-        <v>0.08108496667949315</v>
+        <v>0.08108496667949319</v>
       </c>
       <c r="M48">
-        <v>661.1863530517207</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>0.08075375070375</v>
+      </c>
+      <c r="N48">
+        <v>661.186353051721</v>
+      </c>
+      <c r="O48">
+        <v>0.0003312159757431954</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49">
         <v>164.9968765458557</v>
       </c>
       <c r="B49">
-        <v>348970.8217274273</v>
+        <v>348970.821727423</v>
       </c>
       <c r="C49">
-        <v>279.075171606088</v>
+        <v>279.0751716060842</v>
       </c>
       <c r="D49">
-        <v>16704.14460151645</v>
+        <v>16704.14460151644</v>
       </c>
       <c r="E49">
-        <v>10683.39840879603</v>
+        <v>10683.39840879602</v>
       </c>
       <c r="F49">
-        <v>9453.835117416407</v>
+        <v>9453.835117416391</v>
       </c>
       <c r="G49">
-        <v>5.889433335183317</v>
+        <v>5.889433335183337</v>
       </c>
       <c r="H49">
-        <v>45.27343574811427</v>
+        <v>45.27343574811434</v>
       </c>
       <c r="I49">
-        <v>3.52796710999887E-09</v>
+        <v>3.527967109998875E-09</v>
       </c>
       <c r="J49">
-        <v>2.326945393653624E-09</v>
+        <v>2.326945393653627E-09</v>
       </c>
       <c r="K49">
-        <v>0.0003368670842688229</v>
+        <v>0.0003368670842688227</v>
       </c>
       <c r="L49">
-        <v>0.08053627027345611</v>
+        <v>0.08053627027345613</v>
       </c>
       <c r="M49">
-        <v>651.0881712157071</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>0.08018782683714268</v>
+      </c>
+      <c r="N49">
+        <v>651.0881712157068</v>
+      </c>
+      <c r="O49">
+        <v>0.0003484434363134409</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50">
         <v>166.2371060951679</v>
       </c>
       <c r="B50">
-        <v>372321.433656024</v>
+        <v>372321.4336560239</v>
       </c>
       <c r="C50">
-        <v>296.854574760033</v>
+        <v>296.8545747600328</v>
       </c>
       <c r="D50">
         <v>16619.83003939138</v>
@@ -2532,7 +2832,7 @@
         <v>10605.47746349874</v>
       </c>
       <c r="F50">
-        <v>9373.658057229137</v>
+        <v>9373.658057229139</v>
       </c>
       <c r="G50">
         <v>5.834715631957263</v>
@@ -2553,141 +2853,165 @@
         <v>0.07995534706014028</v>
       </c>
       <c r="M50">
+        <v>0.07958891024128247</v>
+      </c>
+      <c r="N50">
         <v>641.067205861816</v>
       </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="O50">
+        <v>0.0003664368188578084</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51">
         <v>167.4773356444801</v>
       </c>
       <c r="B51">
-        <v>396812.6225424534</v>
+        <v>396812.6225424571</v>
       </c>
       <c r="C51">
-        <v>315.4928677195999</v>
+        <v>315.4928677196031</v>
       </c>
       <c r="D51">
-        <v>16535.181095455</v>
+        <v>16535.18109545499</v>
       </c>
       <c r="E51">
-        <v>10526.88910554536</v>
+        <v>10526.88910554537</v>
       </c>
       <c r="F51">
-        <v>9293.132533339269</v>
+        <v>9293.132533339265</v>
       </c>
       <c r="G51">
-        <v>5.784821934128156</v>
+        <v>5.784821934128176</v>
       </c>
       <c r="H51">
-        <v>45.08263512172106</v>
+        <v>45.08263512172122</v>
       </c>
       <c r="I51">
-        <v>3.776092648734574E-09</v>
+        <v>3.776092648734602E-09</v>
       </c>
       <c r="J51">
-        <v>2.497665803514576E-09</v>
+        <v>2.497665803514585E-09</v>
       </c>
       <c r="K51">
-        <v>0.0003145647828081498</v>
+        <v>0.0003145647828081483</v>
       </c>
       <c r="L51">
-        <v>0.07934024765478419</v>
+        <v>0.07934024765478406</v>
       </c>
       <c r="M51">
-        <v>631.1169259254331</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>0.07895502856221247</v>
+      </c>
+      <c r="N51">
+        <v>631.1169259254314</v>
+      </c>
+      <c r="O51">
+        <v>0.0003852190925715986</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52">
         <v>168.7175651937923</v>
       </c>
       <c r="B52">
-        <v>422478.2909157817</v>
+        <v>422478.2909157781</v>
       </c>
       <c r="C52">
-        <v>335.0213339807294</v>
+        <v>335.021333980726</v>
       </c>
       <c r="D52">
-        <v>16450.13972719109</v>
+        <v>16450.13972719107</v>
       </c>
       <c r="E52">
-        <v>10447.56488255963</v>
+        <v>10447.56488255964</v>
       </c>
       <c r="F52">
-        <v>9212.19831664001</v>
+        <v>9212.198316640002</v>
       </c>
       <c r="G52">
-        <v>5.739753261082106</v>
+        <v>5.739753261082154</v>
       </c>
       <c r="H52">
-        <v>45.05514549584354</v>
+        <v>45.05514549584373</v>
       </c>
       <c r="I52">
-        <v>3.910895543296055E-09</v>
+        <v>3.910895543296097E-09</v>
       </c>
       <c r="J52">
-        <v>2.587709551531251E-09</v>
+        <v>2.587709551531266E-09</v>
       </c>
       <c r="K52">
-        <v>0.0003042535273513251</v>
+        <v>0.0003042535273513237</v>
       </c>
       <c r="L52">
-        <v>0.07868910190712232</v>
+        <v>0.07868910190712221</v>
       </c>
       <c r="M52">
-        <v>621.2311679562903</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>0.0782842887733953</v>
+      </c>
+      <c r="N52">
+        <v>621.2311679562875</v>
+      </c>
+      <c r="O52">
+        <v>0.0004048131337269016</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53">
         <v>169.9577947431044</v>
       </c>
       <c r="B53">
-        <v>449352.6010655902</v>
+        <v>449352.6010655957</v>
       </c>
       <c r="C53">
-        <v>355.4724654781434</v>
+        <v>355.4724654781483</v>
       </c>
       <c r="D53">
-        <v>16364.64683833511</v>
+        <v>16364.64683833512</v>
       </c>
       <c r="E53">
-        <v>10367.43624768003</v>
+        <v>10367.43624767997</v>
       </c>
       <c r="F53">
-        <v>9130.795389730119</v>
+        <v>9130.795389730074</v>
       </c>
       <c r="G53">
-        <v>5.699496477645272</v>
+        <v>5.699496477645283</v>
       </c>
       <c r="H53">
-        <v>45.0729118548458</v>
+        <v>45.07291185484574</v>
       </c>
       <c r="I53">
-        <v>4.053616183676365E-09</v>
+        <v>4.05361618367634E-09</v>
       </c>
       <c r="J53">
-        <v>2.680985420953121E-09</v>
+        <v>2.680985420953116E-09</v>
       </c>
       <c r="K53">
-        <v>0.0002944518208333211</v>
+        <v>0.0002944518208333221</v>
       </c>
       <c r="L53">
-        <v>0.07800016258990498</v>
+        <v>0.07800016258990508</v>
       </c>
       <c r="M53">
-        <v>611.4041047457983</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>0.07757492089776191</v>
+      </c>
+      <c r="N53">
+        <v>611.4041047457997</v>
+      </c>
+      <c r="O53">
+        <v>0.000425241692143172</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54">
         <v>171.1980242924166</v>
       </c>
       <c r="B54">
-        <v>477469.9662842156</v>
+        <v>477469.9662842028</v>
       </c>
       <c r="C54">
-        <v>376.8800596184404</v>
+        <v>376.8800596184288</v>
       </c>
       <c r="D54">
         <v>16278.64210943083</v>
@@ -2696,80 +3020,92 @@
         <v>10286.434348143</v>
       </c>
       <c r="F54">
-        <v>9048.863774760661</v>
+        <v>9048.863774760657</v>
       </c>
       <c r="G54">
-        <v>5.664027285357863</v>
+        <v>5.664027285357836</v>
       </c>
       <c r="H54">
         <v>45.13606978726146</v>
       </c>
       <c r="I54">
-        <v>4.204893483228957E-09</v>
+        <v>4.204893483228951E-09</v>
       </c>
       <c r="J54">
-        <v>2.777577859861436E-09</v>
+        <v>2.777577859861433E-09</v>
       </c>
       <c r="K54">
-        <v>0.0002851244532810271</v>
+        <v>0.0002851244532810273</v>
       </c>
       <c r="L54">
-        <v>0.07727185635726236</v>
+        <v>0.07727185635726241</v>
       </c>
       <c r="M54">
-        <v>601.6302178184502</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>0.0768253289952454</v>
+      </c>
+      <c r="N54">
+        <v>601.6302178184508</v>
+      </c>
+      <c r="O54">
+        <v>0.0004465273620170209</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55">
         <v>172.4382538417288</v>
       </c>
       <c r="B55">
-        <v>506865.0431883084</v>
+        <v>506865.0431883128</v>
       </c>
       <c r="C55">
-        <v>399.2793286158027</v>
+        <v>399.2793286158066</v>
       </c>
       <c r="D55">
-        <v>16192.06381972667</v>
+        <v>16192.06381972666</v>
       </c>
       <c r="E55">
         <v>10204.48979565063</v>
       </c>
       <c r="F55">
-        <v>8966.343348070335</v>
+        <v>8966.34334807033</v>
       </c>
       <c r="G55">
-        <v>5.633312942526895</v>
+        <v>5.633312942526943</v>
       </c>
       <c r="H55">
-        <v>45.24488170671725</v>
+        <v>45.24488170671734</v>
       </c>
       <c r="I55">
-        <v>4.365431056689715E-09</v>
+        <v>4.365431056689742E-09</v>
       </c>
       <c r="J55">
-        <v>2.877573404149669E-09</v>
+        <v>2.87757340414968E-09</v>
       </c>
       <c r="K55">
-        <v>0.000276238302859839</v>
+        <v>0.0002762383028598381</v>
       </c>
       <c r="L55">
-        <v>0.07650284233833059</v>
+        <v>0.07650284233833049</v>
       </c>
       <c r="M55">
-        <v>591.9042732552042</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>0.07603414978036929</v>
+      </c>
+      <c r="N55">
+        <v>591.9042732552024</v>
+      </c>
+      <c r="O55">
+        <v>0.0004686925579612019</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56">
         <v>173.678483391041</v>
       </c>
       <c r="B56">
-        <v>537572.7253402834</v>
+        <v>537572.7253402771</v>
       </c>
       <c r="C56">
-        <v>422.707023114785</v>
+        <v>422.7070231147791</v>
       </c>
       <c r="D56">
         <v>16104.84865932078</v>
@@ -2778,39 +3114,45 @@
         <v>10121.53241604864</v>
       </c>
       <c r="F56">
-        <v>8883.173639707906</v>
+        <v>8883.173639707908</v>
       </c>
       <c r="G56">
-        <v>5.607314745879441</v>
+        <v>5.60731474587951</v>
       </c>
       <c r="H56">
-        <v>45.39974413117426</v>
+        <v>45.39974413117427</v>
       </c>
       <c r="I56">
-        <v>4.536005152443008E-09</v>
+        <v>4.536005152443004E-09</v>
       </c>
       <c r="J56">
-        <v>2.981061066816417E-09</v>
+        <v>2.981061066816418E-09</v>
       </c>
       <c r="K56">
         <v>0.0002677623034133679</v>
       </c>
       <c r="L56">
-        <v>0.07569207836697277</v>
+        <v>0.07569207836697275</v>
       </c>
       <c r="M56">
-        <v>582.2213003810898</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>0.07520031886983654</v>
+      </c>
+      <c r="N56">
+        <v>582.2213003810897</v>
+      </c>
+      <c r="O56">
+        <v>0.0004917594971362148</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57">
         <v>174.9187129403531</v>
       </c>
       <c r="B57">
-        <v>569628.1384289501</v>
+        <v>569628.1384289527</v>
       </c>
       <c r="C57">
-        <v>447.2015724304129</v>
+        <v>447.2015724304151</v>
       </c>
       <c r="D57">
         <v>16016.93153035224</v>
@@ -2822,118 +3164,136 @@
         <v>8799.293615650951</v>
       </c>
       <c r="G57">
-        <v>5.585990303725406</v>
+        <v>5.585990303725434</v>
       </c>
       <c r="H57">
-        <v>45.60119587515886</v>
+        <v>45.60119587515891</v>
       </c>
       <c r="I57">
-        <v>4.717473731470043E-09</v>
+        <v>4.717473731470051E-09</v>
       </c>
       <c r="J57">
-        <v>3.088132793024114E-09</v>
+        <v>3.088132793024115E-09</v>
       </c>
       <c r="K57">
-        <v>0.0002596673796131155</v>
+        <v>0.0002596673796131153</v>
       </c>
       <c r="L57">
-        <v>0.07483889423557877</v>
+        <v>0.07483889423557874</v>
       </c>
       <c r="M57">
-        <v>572.5765729025318</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>0.07432314404718905</v>
+      </c>
+      <c r="N57">
+        <v>572.5765729025313</v>
+      </c>
+      <c r="O57">
+        <v>0.0005157501883896883</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58">
-        <v>176.1589424896653</v>
+        <v>176.1589424896654</v>
       </c>
       <c r="B58">
-        <v>603066.6373170104</v>
+        <v>603066.6373170079</v>
       </c>
       <c r="C58">
-        <v>472.8032441456337</v>
+        <v>472.803244145631</v>
       </c>
       <c r="D58">
-        <v>15928.2453359049</v>
+        <v>15928.24533590491</v>
       </c>
       <c r="E58">
         <v>9952.292879938614</v>
       </c>
       <c r="F58">
-        <v>8714.641440201471</v>
+        <v>8714.641440201474</v>
       </c>
       <c r="G58">
-        <v>5.569295627994805</v>
+        <v>5.569295627994769</v>
       </c>
       <c r="H58">
-        <v>45.84992731249145</v>
+        <v>45.84992731249132</v>
       </c>
       <c r="I58">
-        <v>4.910786886388009E-09</v>
+        <v>4.910786886387989E-09</v>
       </c>
       <c r="J58">
-        <v>3.19888398777704E-09</v>
+        <v>3.198883987777041E-09</v>
       </c>
       <c r="K58">
-        <v>0.000251926360253181</v>
+        <v>0.0002519263602531813</v>
       </c>
       <c r="L58">
-        <v>0.07394307042818782</v>
+        <v>0.07394307042818786</v>
       </c>
       <c r="M58">
-        <v>562.9655921236014</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+        <v>0.07340238399883847</v>
+      </c>
+      <c r="N58">
+        <v>562.9655921236023</v>
+      </c>
+      <c r="O58">
+        <v>0.0005406864293493937</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59">
         <v>177.3991720389775</v>
       </c>
       <c r="B59">
-        <v>637923.805315178</v>
+        <v>637923.8053151884</v>
       </c>
       <c r="C59">
-        <v>499.5543262855605</v>
+        <v>499.5543262855701</v>
       </c>
       <c r="D59">
         <v>15838.72075513394</v>
       </c>
       <c r="E59">
-        <v>9865.863844195983</v>
+        <v>9865.863844195963</v>
       </c>
       <c r="F59">
-        <v>8629.154215671088</v>
+        <v>8629.154215671069</v>
       </c>
       <c r="G59">
-        <v>5.557187070313154</v>
+        <v>5.557187070313096</v>
       </c>
       <c r="H59">
-        <v>46.14679089498322</v>
+        <v>46.14679089498323</v>
       </c>
       <c r="I59">
-        <v>5.116998831812887E-09</v>
+        <v>5.116998831812888E-09</v>
       </c>
       <c r="J59">
-        <v>3.31341412379779E-09</v>
+        <v>3.313414123797787E-09</v>
       </c>
       <c r="K59">
-        <v>0.0002445138781327144</v>
+        <v>0.0002445138781327145</v>
       </c>
       <c r="L59">
-        <v>0.07300491948681598</v>
+        <v>0.07300491948681602</v>
       </c>
       <c r="M59">
-        <v>553.3840719054424</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>0.07243832967436989</v>
+      </c>
+      <c r="N59">
+        <v>553.3840719054427</v>
+      </c>
+      <c r="O59">
+        <v>0.0005665898124461342</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60">
         <v>178.6394015882897</v>
       </c>
       <c r="B60">
-        <v>674235.4561046473</v>
+        <v>674235.456104647</v>
       </c>
       <c r="C60">
-        <v>527.4993358561626</v>
+        <v>527.4993358561622</v>
       </c>
       <c r="D60">
         <v>15748.28600293753</v>
@@ -2963,59 +3323,71 @@
         <v>0.07202536550383822</v>
       </c>
       <c r="M60">
+        <v>0.07143188376296458</v>
+      </c>
+      <c r="N60">
         <v>543.8279250603038</v>
       </c>
-    </row>
-    <row r="61" spans="1:13">
+      <c r="O60">
+        <v>0.000593481740873628</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61">
-        <v>179.8796311376018</v>
+        <v>179.8796311376019</v>
       </c>
       <c r="B61">
-        <v>712037.6387996491</v>
+        <v>712037.6387996487</v>
       </c>
       <c r="C61">
-        <v>556.685258207423</v>
+        <v>556.6852582074223</v>
       </c>
       <c r="D61">
-        <v>15656.86657226986</v>
+        <v>15656.86657226985</v>
       </c>
       <c r="E61">
-        <v>9689.005124447647</v>
+        <v>9689.005124447649</v>
       </c>
       <c r="F61">
-        <v>8455.415970823111</v>
+        <v>8455.415970823107</v>
       </c>
       <c r="G61">
-        <v>5.546566123182</v>
+        <v>5.546566123182022</v>
       </c>
       <c r="H61">
-        <v>46.88920840919143</v>
+        <v>46.88920840919155</v>
       </c>
       <c r="I61">
-        <v>5.572941782087241E-09</v>
+        <v>5.572941782087278E-09</v>
       </c>
       <c r="J61">
-        <v>3.554233726311833E-09</v>
+        <v>3.554233726311848E-09</v>
       </c>
       <c r="K61">
-        <v>0.0002305814333081607</v>
+        <v>0.0002305814333081599</v>
       </c>
       <c r="L61">
-        <v>0.07100601532368332</v>
+        <v>0.07100601532368317</v>
       </c>
       <c r="M61">
-        <v>534.2932508915177</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+        <v>0.07038463186815816</v>
+      </c>
+      <c r="N61">
+        <v>534.2932508915162</v>
+      </c>
+      <c r="O61">
+        <v>0.0006213834555250159</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62">
         <v>181.1198606869141</v>
       </c>
       <c r="B62">
-        <v>751366.646722377</v>
+        <v>751366.6467223739</v>
       </c>
       <c r="C62">
-        <v>587.161822481387</v>
+        <v>587.1618224813841</v>
       </c>
       <c r="D62">
         <v>15564.38495691508</v>
@@ -3024,48 +3396,54 @@
         <v>9598.41492472454</v>
       </c>
       <c r="F62">
-        <v>8367.031114662052</v>
+        <v>8367.031114662055</v>
       </c>
       <c r="G62">
-        <v>5.547983830546702</v>
+        <v>5.547983830546714</v>
       </c>
       <c r="H62">
-        <v>47.33739463275259</v>
+        <v>47.3373946327526</v>
       </c>
       <c r="I62">
-        <v>5.825437703768365E-09</v>
+        <v>5.825437703768363E-09</v>
       </c>
       <c r="J62">
-        <v>3.680749246665017E-09</v>
+        <v>3.680749246665019E-09</v>
       </c>
       <c r="K62">
-        <v>0.000224018788091598</v>
+        <v>0.0002240187880915978</v>
       </c>
       <c r="L62">
-        <v>0.06994921313559993</v>
+        <v>0.0699492131355999</v>
       </c>
       <c r="M62">
-        <v>524.7763236036948</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
+        <v>0.06929889706161869</v>
+      </c>
+      <c r="N62">
+        <v>524.7763236036949</v>
+      </c>
+      <c r="O62">
+        <v>0.0006503160739812018</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63">
         <v>182.3600902362262</v>
       </c>
       <c r="B63">
-        <v>792259.0305550847</v>
+        <v>792259.0305550894</v>
       </c>
       <c r="C63">
-        <v>618.9818193626838</v>
+        <v>618.9818193626882</v>
       </c>
       <c r="D63">
         <v>15470.7603522024</v>
       </c>
       <c r="E63">
-        <v>9506.271804206102</v>
+        <v>9506.271804206086</v>
       </c>
       <c r="F63">
-        <v>8277.542797756098</v>
+        <v>8277.542797756083</v>
       </c>
       <c r="G63">
         <v>5.553850980679424</v>
@@ -3086,36 +3464,42 @@
         <v>0.06885806866972161</v>
       </c>
       <c r="M63">
+        <v>0.06817776802705494</v>
+      </c>
+      <c r="N63">
         <v>515.273581313543</v>
       </c>
-    </row>
-    <row r="64" spans="1:13">
+      <c r="O63">
+        <v>0.0006803006426666627</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64">
         <v>183.6003197855384</v>
       </c>
       <c r="B64">
-        <v>834751.6166405989</v>
+        <v>834751.6166406159</v>
       </c>
       <c r="C64">
-        <v>652.2014685000962</v>
+        <v>652.2014685001126</v>
       </c>
       <c r="D64">
         <v>15375.90833072186</v>
       </c>
       <c r="E64">
-        <v>9412.486671424647</v>
+        <v>9412.486671424615</v>
       </c>
       <c r="F64">
-        <v>8186.877851072482</v>
+        <v>8186.877851072458</v>
       </c>
       <c r="G64">
-        <v>5.564150749284758</v>
+        <v>5.564150749284769</v>
       </c>
       <c r="H64">
-        <v>48.39594242563103</v>
+        <v>48.39594242563105</v>
       </c>
       <c r="I64">
-        <v>6.387669064265901E-09</v>
+        <v>6.387669064265904E-09</v>
       </c>
       <c r="J64">
         <v>3.946611608109134E-09</v>
@@ -3127,736 +3511,844 @@
         <v>0.0677364487332654</v>
       </c>
       <c r="M64">
-        <v>505.7816153913444</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
+        <v>0.06702509052992991</v>
+      </c>
+      <c r="N64">
+        <v>505.7816153913442</v>
+      </c>
+      <c r="O64">
+        <v>0.0007113582033354794</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65">
         <v>184.8405493348506</v>
       </c>
       <c r="B65">
-        <v>878881.5313294193</v>
+        <v>878881.5313294155</v>
       </c>
       <c r="C65">
-        <v>686.8808443643342</v>
+        <v>686.8808443643303</v>
       </c>
       <c r="D65">
-        <v>15279.74048957796</v>
+        <v>15279.74048957794</v>
       </c>
       <c r="E65">
-        <v>9316.965842319818</v>
+        <v>9316.965842319823</v>
       </c>
       <c r="F65">
-        <v>8094.959779549852</v>
+        <v>8094.959779549848</v>
       </c>
       <c r="G65">
-        <v>5.578876194445827</v>
+        <v>5.578876194445818</v>
       </c>
       <c r="H65">
-        <v>49.01033776883157</v>
+        <v>49.01033776883182</v>
       </c>
       <c r="I65">
-        <v>6.701299435492273E-09</v>
+        <v>6.701299435492349E-09</v>
       </c>
       <c r="J65">
-        <v>4.086233186233059E-09</v>
+        <v>4.08623318623308E-09</v>
       </c>
       <c r="K65">
-        <v>0.0002057180568286302</v>
+        <v>0.0002057180568286293</v>
       </c>
       <c r="L65">
-        <v>0.06658892293711258</v>
+        <v>0.0665889229371124</v>
       </c>
       <c r="M65">
-        <v>496.2971598563768</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
+        <v>0.06584541306200536</v>
+      </c>
+      <c r="N65">
+        <v>496.2971598563749</v>
+      </c>
+      <c r="O65">
+        <v>0.0007435098751070268</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66">
         <v>186.0807788841628</v>
       </c>
       <c r="B66">
-        <v>924686.2324432514</v>
+        <v>924686.232443249</v>
       </c>
       <c r="C66">
-        <v>723.0843710325352</v>
+        <v>723.0843710325327</v>
       </c>
       <c r="D66">
-        <v>15182.1640650899</v>
+        <v>15182.16406508989</v>
       </c>
       <c r="E66">
-        <v>9219.610339618974</v>
+        <v>9219.610339618976</v>
       </c>
       <c r="F66">
-        <v>8001.708215127672</v>
+        <v>8001.708215127671</v>
       </c>
       <c r="G66">
-        <v>5.598031677231817</v>
+        <v>5.598031677231837</v>
       </c>
       <c r="H66">
-        <v>49.68464551841873</v>
+        <v>49.68464551841886</v>
       </c>
       <c r="I66">
-        <v>7.039620532966745E-09</v>
+        <v>7.039620532966776E-09</v>
       </c>
       <c r="J66">
-        <v>4.230516260498934E-09</v>
+        <v>4.230516260498941E-09</v>
       </c>
       <c r="K66">
-        <v>0.0002000243019434253</v>
+        <v>0.0002000243019434251</v>
       </c>
       <c r="L66">
-        <v>0.06542065760441033</v>
+        <v>0.06542065760441031</v>
       </c>
       <c r="M66">
-        <v>486.8170805404577</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
+        <v>0.06464388065107521</v>
+      </c>
+      <c r="N66">
+        <v>486.817080540457</v>
+      </c>
+      <c r="O66">
+        <v>0.0007767769533350921</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67">
-        <v>187.3210084334749</v>
+        <v>187.321008433475</v>
       </c>
       <c r="B67">
-        <v>972203.5491813637</v>
+        <v>972203.5491813824</v>
       </c>
       <c r="C67">
-        <v>760.8813985642246</v>
+        <v>760.8813985642429</v>
       </c>
       <c r="D67">
         <v>15083.08151010828</v>
       </c>
       <c r="E67">
-        <v>9120.315104134346</v>
+        <v>9120.315104134328</v>
       </c>
       <c r="F67">
-        <v>7907.038299918445</v>
+        <v>7907.038299918439</v>
       </c>
       <c r="G67">
-        <v>5.621634279462795</v>
+        <v>5.621634279462796</v>
       </c>
       <c r="H67">
-        <v>50.42164491341713</v>
+        <v>50.42164491341709</v>
       </c>
       <c r="I67">
-        <v>7.405265533275207E-09</v>
+        <v>7.405265533275174E-09</v>
       </c>
       <c r="J67">
-        <v>4.379627720244513E-09</v>
+        <v>4.379627720244507E-09</v>
       </c>
       <c r="K67">
-        <v>0.0001945085724141654</v>
+        <v>0.0001945085724141657</v>
       </c>
       <c r="L67">
-        <v>0.06423725707215674</v>
+        <v>0.06423725707215679</v>
       </c>
       <c r="M67">
-        <v>477.3383637263889</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
+        <v>0.0634260760454928</v>
+      </c>
+      <c r="N67">
+        <v>477.3383637263898</v>
+      </c>
+      <c r="O67">
+        <v>0.0008111810266639869</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68">
         <v>188.5612379827871</v>
       </c>
       <c r="B68">
-        <v>1021471.730910672</v>
+        <v>1021471.730910622</v>
       </c>
       <c r="C68">
-        <v>800.3468751303436</v>
+        <v>800.346875130293</v>
       </c>
       <c r="D68">
-        <v>14982.39002680423</v>
+        <v>14982.39002680418</v>
       </c>
       <c r="E68">
-        <v>9018.968105066766</v>
+        <v>9018.968105066811</v>
       </c>
       <c r="F68">
-        <v>7810.85998800382</v>
+        <v>7810.859988003817</v>
       </c>
       <c r="G68">
-        <v>5.649715237254806</v>
+        <v>5.64971523725489</v>
       </c>
       <c r="H68">
-        <v>51.22448755216966</v>
+        <v>51.22448755217056</v>
       </c>
       <c r="I68">
-        <v>7.801223531080147E-09</v>
+        <v>7.801223531080479E-09</v>
       </c>
       <c r="J68">
-        <v>4.533749451502429E-09</v>
+        <v>4.5337494515025E-09</v>
       </c>
       <c r="K68">
-        <v>0.0001891572243284655</v>
+        <v>0.0001891572243284628</v>
       </c>
       <c r="L68">
-        <v>0.06304455834635631</v>
+        <v>0.06304455834635571</v>
       </c>
       <c r="M68">
-        <v>467.8581037611433</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
+        <v>0.06219781423239606</v>
+      </c>
+      <c r="N68">
+        <v>467.8581037611357</v>
+      </c>
+      <c r="O68">
+        <v>0.000846744113959652</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69">
         <v>189.8014675320993</v>
       </c>
       <c r="B69">
-        <v>1072529.508012049</v>
+        <v>1072529.508012071</v>
       </c>
       <c r="C69">
-        <v>841.5621347158605</v>
+        <v>841.5621347158826</v>
       </c>
       <c r="D69">
         <v>14879.98104927518</v>
       </c>
       <c r="E69">
-        <v>8915.449330582456</v>
+        <v>8915.449330582451</v>
       </c>
       <c r="F69">
-        <v>7713.077251632279</v>
+        <v>7713.077251632284</v>
       </c>
       <c r="G69">
-        <v>5.682321404307013</v>
+        <v>5.682321404306956</v>
       </c>
       <c r="H69">
-        <v>52.09674643438446</v>
+        <v>52.09674643438429</v>
       </c>
       <c r="I69">
-        <v>8.230898890554056E-09</v>
+        <v>8.230898890554016E-09</v>
       </c>
       <c r="J69">
-        <v>4.693080473936714E-09</v>
+        <v>4.693080473936708E-09</v>
       </c>
       <c r="K69">
-        <v>0.0001839575142823265</v>
+        <v>0.0001839575142823266</v>
       </c>
       <c r="L69">
-        <v>0.06184839227006698</v>
+        <v>0.06184839227006703</v>
       </c>
       <c r="M69">
-        <v>458.3734895293153</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
+        <v>0.06096490344761527</v>
+      </c>
+      <c r="N69">
+        <v>458.3734895293162</v>
+      </c>
+      <c r="O69">
+        <v>0.0008834888224517572</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70">
         <v>191.0416970814115</v>
       </c>
       <c r="B70">
-        <v>1125416.166801444</v>
+        <v>1125416.166801425</v>
       </c>
       <c r="C70">
-        <v>884.6158229161807</v>
+        <v>884.6158229161616</v>
       </c>
       <c r="D70">
-        <v>14775.73966689044</v>
+        <v>14775.73966689043</v>
       </c>
       <c r="E70">
-        <v>8809.629637971209</v>
+        <v>8809.629637971204</v>
       </c>
       <c r="F70">
-        <v>7613.587174551403</v>
+        <v>7613.58717455139</v>
       </c>
       <c r="G70">
-        <v>5.719516762311718</v>
+        <v>5.719516762311703</v>
       </c>
       <c r="H70">
-        <v>53.04247511429522</v>
+        <v>53.04247511429528</v>
       </c>
       <c r="I70">
-        <v>8.698182650582743E-09</v>
+        <v>8.698182650582802E-09</v>
       </c>
       <c r="J70">
-        <v>4.857839361599571E-09</v>
+        <v>4.85783936159959E-09</v>
       </c>
       <c r="K70">
-        <v>0.0001788975417775915</v>
+        <v>0.0001788975417775909</v>
       </c>
       <c r="L70">
-        <v>0.06065433035766508</v>
+        <v>0.06065433035766494</v>
       </c>
       <c r="M70">
-        <v>448.8817893665159</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
+        <v>0.05973289182879373</v>
+      </c>
+      <c r="N70">
+        <v>448.8817893665147</v>
+      </c>
+      <c r="O70">
+        <v>0.0009214385288712067</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71">
-        <v>192.2819266307236</v>
+        <v>192.2819266307237</v>
       </c>
       <c r="B71">
-        <v>1180171.638223578</v>
+        <v>1180171.63822351</v>
       </c>
       <c r="C71">
-        <v>929.6049856867113</v>
+        <v>929.6049856866395</v>
       </c>
       <c r="D71">
-        <v>14669.54397393789</v>
+        <v>14669.54397393785</v>
       </c>
       <c r="E71">
-        <v>8701.369440705435</v>
+        <v>8701.369440705517</v>
       </c>
       <c r="F71">
-        <v>7512.278911487469</v>
+        <v>7512.278911487517</v>
       </c>
       <c r="G71">
-        <v>5.761384002600111</v>
+        <v>5.761384002600124</v>
       </c>
       <c r="H71">
-        <v>54.06627964734303</v>
+        <v>54.06627964734358</v>
       </c>
       <c r="I71">
-        <v>9.207538962740983E-09</v>
+        <v>9.207538962741238E-09</v>
       </c>
       <c r="J71">
-        <v>5.028266995925223E-09</v>
+        <v>5.02826699592528E-09</v>
       </c>
       <c r="K71">
-        <v>0.0001739661961101793</v>
+        <v>0.0001739661961101774</v>
       </c>
       <c r="L71">
-        <v>0.05946743976184139</v>
+        <v>0.05946743976184097</v>
       </c>
       <c r="M71">
-        <v>439.3803335323021</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
+        <v>0.05850682217563885</v>
+      </c>
+      <c r="N71">
+        <v>439.3803335322978</v>
+      </c>
+      <c r="O71">
+        <v>0.0009606175862021212</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72">
         <v>193.5221561800358</v>
       </c>
       <c r="B72">
-        <v>1236836.605623203</v>
+        <v>1236836.605623143</v>
       </c>
       <c r="C72">
-        <v>976.6363576483865</v>
+        <v>976.6363576483219</v>
       </c>
       <c r="D72">
-        <v>14561.26433409279</v>
+        <v>14561.2643340927</v>
       </c>
       <c r="E72">
-        <v>8590.517197735659</v>
+        <v>8590.517197735726</v>
       </c>
       <c r="F72">
-        <v>7409.03248700147</v>
+        <v>7409.032487001473</v>
       </c>
       <c r="G72">
-        <v>5.80802619440647</v>
+        <v>5.808026194406621</v>
       </c>
       <c r="H72">
-        <v>55.17340669550567</v>
+        <v>55.17340669550776</v>
       </c>
       <c r="I72">
-        <v>9.764110367458607E-09</v>
+        <v>9.764110367459363E-09</v>
       </c>
       <c r="J72">
-        <v>5.204629701564651E-09</v>
+        <v>5.204629701564783E-09</v>
       </c>
       <c r="K72">
-        <v>0.0001691531070675225</v>
+        <v>0.0001691531070675183</v>
       </c>
       <c r="L72">
-        <v>0.05829206863005681</v>
+        <v>0.05829206863005583</v>
       </c>
       <c r="M72">
-        <v>429.8664941454788</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
+        <v>0.05729101707214362</v>
+      </c>
+      <c r="N72">
+        <v>429.8664941454673</v>
+      </c>
+      <c r="O72">
+        <v>0.001001051557912215</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73">
         <v>194.762385729348</v>
       </c>
       <c r="B73">
-        <v>1295452.633830318</v>
+        <v>1295452.633830236</v>
       </c>
       <c r="C73">
-        <v>1025.827891373664</v>
+        <v>1025.827891373575</v>
       </c>
       <c r="D73">
-        <v>14450.76254019396</v>
+        <v>14450.76254019389</v>
       </c>
       <c r="E73">
-        <v>8476.90766636333</v>
+        <v>8476.907666363404</v>
       </c>
       <c r="F73">
-        <v>7303.717400521259</v>
+        <v>7303.71740052128</v>
       </c>
       <c r="G73">
-        <v>5.859568565035587</v>
+        <v>5.859568565035679</v>
       </c>
       <c r="H73">
-        <v>56.36985229391499</v>
+        <v>56.36985229391636</v>
       </c>
       <c r="I73">
-        <v>1.037384689846622E-08</v>
+        <v>1.03738468984668E-08</v>
       </c>
       <c r="J73">
-        <v>5.387222833341265E-09</v>
+        <v>5.387222833341365E-09</v>
       </c>
       <c r="K73">
-        <v>0.0001644485985032852</v>
+        <v>0.0001644485985032822</v>
       </c>
       <c r="L73">
-        <v>0.05713168013200948</v>
+        <v>0.05713168013200874</v>
       </c>
       <c r="M73">
-        <v>420.337661828463</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
+        <v>0.05608891264931575</v>
+      </c>
+      <c r="N73">
+        <v>420.3376618284546</v>
+      </c>
+      <c r="O73">
+        <v>0.001042767482692989</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74">
         <v>196.0026152786602</v>
       </c>
       <c r="B74">
-        <v>1356062.322753212</v>
+        <v>1356062.322753242</v>
       </c>
       <c r="C74">
-        <v>1077.310580199836</v>
+        <v>1077.310580199868</v>
       </c>
       <c r="D74">
-        <v>14337.89084499976</v>
+        <v>14337.89084499975</v>
       </c>
       <c r="E74">
-        <v>8360.35986909902</v>
+        <v>8360.359869098975</v>
       </c>
       <c r="F74">
-        <v>7196.190995475356</v>
+        <v>7196.19099547532</v>
       </c>
       <c r="G74">
-        <v>5.916160420593709</v>
+        <v>5.916160420593743</v>
       </c>
       <c r="H74">
-        <v>57.66249721058752</v>
+        <v>57.66249721058772</v>
       </c>
       <c r="I74">
-        <v>1.104366557683319E-08</v>
+        <v>1.104366557683327E-08</v>
       </c>
       <c r="J74">
-        <v>5.57637489848504E-09</v>
+        <v>5.576374898485054E-09</v>
       </c>
       <c r="K74">
-        <v>0.0001598436438883582</v>
+        <v>0.0001598436438883578</v>
       </c>
       <c r="L74">
-        <v>0.05598874683460763</v>
+        <v>0.05598874683460751</v>
       </c>
       <c r="M74">
-        <v>410.7912183031615</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
+        <v>0.05490295266132667</v>
+      </c>
+      <c r="N74">
+        <v>410.7912183031605</v>
+      </c>
+      <c r="O74">
+        <v>0.001085794173280832</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75">
         <v>197.2428448279724</v>
       </c>
       <c r="B75">
-        <v>1418709.493552879</v>
+        <v>1418709.493552891</v>
       </c>
       <c r="C75">
-        <v>1131.230645882273</v>
+        <v>1131.230645882285</v>
       </c>
       <c r="D75">
-        <v>14222.49083666995</v>
+        <v>14222.49083666996</v>
       </c>
       <c r="E75">
-        <v>8240.674707001592</v>
+        <v>8240.674707001584</v>
       </c>
       <c r="F75">
         <v>7086.296538255443</v>
       </c>
       <c r="G75">
-        <v>5.977977232332919</v>
+        <v>5.977977232332925</v>
       </c>
       <c r="H75">
-        <v>59.05927665334684</v>
+        <v>59.05927665334656</v>
       </c>
       <c r="I75">
-        <v>1.17816489579057E-08</v>
+        <v>1.17816489579056E-08</v>
       </c>
       <c r="J75">
-        <v>5.77245231245203E-09</v>
+        <v>5.772452312452019E-09</v>
       </c>
       <c r="K75">
-        <v>0.0001553298231485676</v>
+        <v>0.0001553298231485681</v>
       </c>
       <c r="L75">
-        <v>0.05486470948290698</v>
+        <v>0.05486470948290707</v>
       </c>
       <c r="M75">
-        <v>401.2245047124022</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
+        <v>0.0537345469301732</v>
+      </c>
+      <c r="N75">
+        <v>401.2245047124033</v>
+      </c>
+      <c r="O75">
+        <v>0.001130162552733861</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76">
-        <v>198.4830743772845</v>
+        <v>198.4830743772846</v>
       </c>
       <c r="B76">
-        <v>1483439.404544916</v>
+        <v>1483439.40454493</v>
       </c>
       <c r="C76">
-        <v>1187.752168061232</v>
+        <v>1187.752168061247</v>
       </c>
       <c r="D76">
         <v>14104.39210952502</v>
       </c>
       <c r="E76">
-        <v>8117.632146203322</v>
+        <v>8117.632146203295</v>
       </c>
       <c r="F76">
-        <v>6973.860938976471</v>
+        <v>6973.860938976452</v>
       </c>
       <c r="G76">
-        <v>6.045222947844567</v>
+        <v>6.045222947844551</v>
       </c>
       <c r="H76">
-        <v>60.56939506357578</v>
+        <v>60.56939506357548</v>
       </c>
       <c r="I76">
-        <v>1.259729449488045E-08</v>
+        <v>1.259729449488038E-08</v>
       </c>
       <c r="J76">
-        <v>5.975864934227433E-09</v>
+        <v>5.975864934227431E-09</v>
       </c>
       <c r="K76">
         <v>0.0001508992795013884</v>
       </c>
       <c r="L76">
-        <v>0.05375999710255176</v>
+        <v>0.05375999710255179</v>
       </c>
       <c r="M76">
-        <v>391.6347835834859</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
+        <v>0.05258409106714144</v>
+      </c>
+      <c r="N76">
+        <v>391.6347835834866</v>
+      </c>
+      <c r="O76">
+        <v>0.001175906035410349</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77">
-        <v>199.7233039265967</v>
+        <v>199.7233039265968</v>
       </c>
       <c r="B77">
-        <v>1550299.014519437</v>
+        <v>1550299.014519433</v>
       </c>
       <c r="C77">
-        <v>1247.060278783893</v>
+        <v>1247.060278783887</v>
       </c>
       <c r="D77">
-        <v>13983.41069158956</v>
+        <v>13983.41069158955</v>
       </c>
       <c r="E77">
-        <v>7990.987860574196</v>
+        <v>7990.987860574199</v>
       </c>
       <c r="F77">
-        <v>6858.692023017798</v>
+        <v>6858.692023017797</v>
       </c>
       <c r="G77">
-        <v>6.118132554419176</v>
+        <v>6.118132554419227</v>
       </c>
       <c r="H77">
-        <v>62.20359984918329</v>
+        <v>62.20359984918347</v>
       </c>
       <c r="I77">
-        <v>1.35018304215368E-08</v>
+        <v>1.350183042153691E-08</v>
       </c>
       <c r="J77">
-        <v>6.187072531388173E-09</v>
+        <v>6.187072531388192E-09</v>
       </c>
       <c r="K77">
-        <v>0.0001465446759798228</v>
+        <v>0.0001465446759798225</v>
       </c>
       <c r="L77">
-        <v>0.05267410055498759</v>
+        <v>0.05267410055498748</v>
       </c>
       <c r="M77">
-        <v>382.0191951493347</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
+        <v>0.05145103959824021</v>
+      </c>
+      <c r="N77">
+        <v>382.0191951493334</v>
+      </c>
+      <c r="O77">
+        <v>0.001223060956747269</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78">
         <v>200.9635334759089</v>
       </c>
       <c r="B78">
-        <v>1619337.29381765</v>
+        <v>1619337.293817667</v>
       </c>
       <c r="C78">
-        <v>1309.365058241244</v>
+        <v>1309.365058241263</v>
       </c>
       <c r="D78">
-        <v>13859.34715192678</v>
+        <v>13859.34715192677</v>
       </c>
       <c r="E78">
-        <v>7860.469201207685</v>
+        <v>7860.469201207673</v>
       </c>
       <c r="F78">
-        <v>6740.575237602478</v>
+        <v>6740.575237602471</v>
       </c>
       <c r="G78">
-        <v>6.196974978775539</v>
+        <v>6.196974978775573</v>
       </c>
       <c r="H78">
-        <v>63.97453352760828</v>
+        <v>63.97453352760841</v>
       </c>
       <c r="I78">
-        <v>1.450861993208723E-08</v>
+        <v>1.450861993208729E-08</v>
       </c>
       <c r="J78">
-        <v>6.40659240566415E-09</v>
+        <v>6.406592405664156E-09</v>
       </c>
       <c r="K78">
         <v>0.000142259150341475</v>
       </c>
       <c r="L78">
-        <v>0.05160568894477314</v>
+        <v>0.0516056889447731</v>
       </c>
       <c r="M78">
-        <v>372.3747058263937</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13">
+        <v>0.05033402188245813</v>
+      </c>
+      <c r="N78">
+        <v>372.374705826393</v>
+      </c>
+      <c r="O78">
+        <v>0.001271667062314966</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79">
         <v>202.2037630252211</v>
       </c>
       <c r="B79">
-        <v>1690605.596633226</v>
+        <v>1690605.596633203</v>
       </c>
       <c r="C79">
-        <v>1374.90632580756</v>
+        <v>1374.906325807529</v>
       </c>
       <c r="D79">
-        <v>13731.98430239812</v>
+        <v>13731.98430239811</v>
       </c>
       <c r="E79">
-        <v>7725.770309265307</v>
+        <v>7725.770309265325</v>
       </c>
       <c r="F79">
-        <v>6619.269639508786</v>
+        <v>6619.269639508794</v>
       </c>
       <c r="G79">
-        <v>6.282056403810587</v>
+        <v>6.282056403810631</v>
       </c>
       <c r="H79">
-        <v>65.89719062225328</v>
+        <v>65.89719062225346</v>
       </c>
       <c r="I79">
-        <v>1.56336837300234E-08</v>
+        <v>1.563368373002349E-08</v>
       </c>
       <c r="J79">
-        <v>6.635008457450388E-09</v>
+        <v>6.635008457450402E-09</v>
       </c>
       <c r="K79">
-        <v>0.0001380362675747001</v>
+        <v>0.0001380362675746998</v>
       </c>
       <c r="L79">
-        <v>0.05055275824309108</v>
+        <v>0.05055275824309102</v>
       </c>
       <c r="M79">
-        <v>362.6980482303395</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13">
+        <v>0.04923099017646419</v>
+      </c>
+      <c r="N79">
+        <v>362.6980482303386</v>
+      </c>
+      <c r="O79">
+        <v>0.001321768066626834</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80">
-        <v>203.4439925745332</v>
+        <v>203.4439925745333</v>
       </c>
       <c r="B80">
-        <v>1764158.106952665</v>
+        <v>1764158.106952706</v>
       </c>
       <c r="C80">
-        <v>1443.959579353878</v>
+        <v>1443.959579353929</v>
       </c>
       <c r="D80">
-        <v>13601.08437500086</v>
+        <v>13601.08437500085</v>
       </c>
       <c r="E80">
-        <v>7586.546134782395</v>
+        <v>7586.546134782328</v>
       </c>
       <c r="F80">
-        <v>6494.502960693979</v>
+        <v>6494.502960693926</v>
       </c>
       <c r="G80">
-        <v>6.373724120053094</v>
+        <v>6.373724120053039</v>
       </c>
       <c r="H80">
-        <v>67.98951601586245</v>
+        <v>67.98951601586272</v>
       </c>
       <c r="I80">
-        <v>1.689638328095756E-08</v>
+        <v>1.689638328095767E-08</v>
       </c>
       <c r="J80">
-        <v>6.872982063981108E-09</v>
+        <v>6.872982063981112E-09</v>
       </c>
       <c r="K80">
-        <v>0.000133869968922721</v>
+        <v>0.0001338699689227209</v>
       </c>
       <c r="L80">
-        <v>0.04951280285461464</v>
+        <v>0.0495128028546146</v>
       </c>
       <c r="M80">
-        <v>352.9856514814236</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13">
+        <v>0.0481393905580046</v>
+      </c>
+      <c r="N80">
+        <v>352.9856514814232</v>
+      </c>
+      <c r="O80">
+        <v>0.001373412296609999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81">
-        <v>204.6842221238454</v>
+        <v>204.6842221238455</v>
       </c>
       <c r="B81">
-        <v>1840052.374440077</v>
+        <v>1840052.374440058</v>
       </c>
       <c r="C81">
-        <v>1516.843423738496</v>
+        <v>1516.843423738469</v>
       </c>
       <c r="D81">
-        <v>13466.38551677003</v>
+        <v>13466.38551677001</v>
       </c>
       <c r="E81">
-        <v>7442.405044705312</v>
+        <v>7442.405044705337</v>
       </c>
       <c r="F81">
-        <v>6365.965480313506</v>
+        <v>6365.96548031352</v>
       </c>
       <c r="G81">
-        <v>6.472371068552754</v>
+        <v>6.472371068552783</v>
       </c>
       <c r="H81">
-        <v>70.27319633314052</v>
+        <v>70.27319633314113</v>
       </c>
       <c r="I81">
-        <v>1.832032513165625E-08</v>
+        <v>1.832032513165657E-08</v>
       </c>
       <c r="J81">
-        <v>7.121265269450824E-09</v>
+        <v>7.121265269450854E-09</v>
       </c>
       <c r="K81">
-        <v>0.0001297545162003493</v>
+        <v>0.0001297545162003486</v>
       </c>
       <c r="L81">
-        <v>0.04848300288280581</v>
+        <v>0.04848300288280562</v>
       </c>
       <c r="M81">
-        <v>343.2335605495676</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
+        <v>0.0470563494433732</v>
+      </c>
+      <c r="N81">
+        <v>343.2335605495657</v>
+      </c>
+      <c r="O81">
+        <v>0.001426653439432417</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82">
         <v>205.9244516731576</v>
       </c>
       <c r="B82">
-        <v>1918349.961008637</v>
+        <v>1918349.961008613</v>
       </c>
       <c r="C82">
-        <v>1593.928952310174</v>
+        <v>1593.928952310141</v>
       </c>
       <c r="D82">
         <v>13327.59738948277</v>
       </c>
       <c r="E82">
-        <v>7292.899594726706</v>
+        <v>7292.899594726712</v>
       </c>
       <c r="F82">
-        <v>6233.302337160483</v>
+        <v>6233.302337160481</v>
       </c>
       <c r="G82">
-        <v>6.57844128748793</v>
+        <v>6.578441287487932</v>
       </c>
       <c r="H82">
-        <v>72.77471787766169</v>
+        <v>72.77471787766152</v>
       </c>
       <c r="I82">
-        <v>1.993457369839784E-08</v>
+        <v>1.99345736983978E-08</v>
       </c>
       <c r="J82">
-        <v>7.380716958902431E-09</v>
+        <v>7.380716958902434E-09</v>
       </c>
       <c r="K82">
         <v>0.0001256844299046257</v>
@@ -3865,786 +4357,906 @@
         <v>0.04746042156363522</v>
       </c>
       <c r="M82">
+        <v>0.04597887014247404</v>
+      </c>
+      <c r="N82">
         <v>333.4373433143043</v>
       </c>
-    </row>
-    <row r="83" spans="1:13">
+      <c r="O82">
+        <v>0.001481551421161183</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83">
-        <v>207.1646812224698</v>
+        <v>207.1646812224699</v>
       </c>
       <c r="B83">
-        <v>1999117.224723115</v>
+        <v>1999117.224723157</v>
       </c>
       <c r="C83">
-        <v>1675.651720535096</v>
+        <v>1675.651720535156</v>
       </c>
       <c r="D83">
-        <v>13184.39558516599</v>
+        <v>13184.395585166</v>
       </c>
       <c r="E83">
-        <v>7137.514887822027</v>
+        <v>7137.514887821972</v>
       </c>
       <c r="F83">
-        <v>6096.103784251224</v>
+        <v>6096.103784251191</v>
       </c>
       <c r="G83">
-        <v>6.692436551787493</v>
+        <v>6.692436551787455</v>
       </c>
       <c r="H83">
-        <v>75.52679763724223</v>
+        <v>75.52679763724163</v>
       </c>
       <c r="I83">
-        <v>2.17753012138395E-08</v>
+        <v>2.177530121383918E-08</v>
       </c>
       <c r="J83">
-        <v>7.652322932835776E-09</v>
+        <v>7.652322932835762E-09</v>
       </c>
       <c r="K83">
-        <v>0.0001216544192005687</v>
+        <v>0.000121654419200569</v>
       </c>
       <c r="L83">
-        <v>0.04644220805550184</v>
+        <v>0.04644220805550195</v>
       </c>
       <c r="M83">
-        <v>323.5919839412421</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
+        <v>0.0449040346033448</v>
+      </c>
+      <c r="N83">
+        <v>323.5919839412437</v>
+      </c>
+      <c r="O83">
+        <v>0.001538173452157146</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84">
         <v>208.404910771782</v>
       </c>
       <c r="B84">
-        <v>2082426.275576687</v>
+        <v>2082426.275576704</v>
       </c>
       <c r="C84">
-        <v>1762.527204229274</v>
+        <v>1762.527204229297</v>
       </c>
       <c r="D84">
-        <v>13036.41446079308</v>
+        <v>13036.41446079309</v>
       </c>
       <c r="E84">
-        <v>6975.653728240735</v>
+        <v>6975.653728240731</v>
       </c>
       <c r="F84">
-        <v>5953.892699661435</v>
+        <v>5953.892699661444</v>
       </c>
       <c r="G84">
-        <v>6.814924602169618</v>
+        <v>6.814924602169603</v>
       </c>
       <c r="H84">
-        <v>78.57034447390376</v>
+        <v>78.57034447390306</v>
       </c>
       <c r="I84">
-        <v>2.388806781762929E-08</v>
+        <v>2.388806781762896E-08</v>
       </c>
       <c r="J84">
-        <v>7.937221150658509E-09</v>
+        <v>7.937221150658496E-09</v>
       </c>
       <c r="K84">
-        <v>0.0001176593012271141</v>
+        <v>0.0001176593012271144</v>
       </c>
       <c r="L84">
-        <v>0.04542580011850458</v>
+        <v>0.04542580011850465</v>
       </c>
       <c r="M84">
-        <v>313.6917611012563</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
+        <v>0.0438292048301645</v>
+      </c>
+      <c r="N84">
+        <v>313.6917611012576</v>
+      </c>
+      <c r="O84">
+        <v>0.001596595288340159</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85">
-        <v>209.6451403210941</v>
+        <v>209.6451403210942</v>
       </c>
       <c r="B85">
-        <v>2168356.148382018</v>
+        <v>2168356.148382023</v>
       </c>
       <c r="C85">
-        <v>1855.171006603959</v>
+        <v>1855.171006603965</v>
       </c>
       <c r="D85">
-        <v>12883.23784119062</v>
+        <v>12883.23784119063</v>
       </c>
       <c r="E85">
         <v>6806.617473370852</v>
       </c>
       <c r="F85">
-        <v>5806.108398007716</v>
+        <v>5806.108398007719</v>
       </c>
       <c r="G85">
-        <v>6.946549509820827</v>
+        <v>6.94654950982074</v>
       </c>
       <c r="H85">
-        <v>81.9571870055651</v>
+        <v>81.95718700556438</v>
       </c>
       <c r="I85">
-        <v>2.633102712008691E-08</v>
+        <v>2.63310271200865E-08</v>
       </c>
       <c r="J85">
-        <v>8.236733922138967E-09</v>
+        <v>8.236733922138952E-09</v>
       </c>
       <c r="K85">
-        <v>0.0001136939062105285</v>
+        <v>0.0001136939062105289</v>
       </c>
       <c r="L85">
-        <v>0.04440911915884151</v>
+        <v>0.04440911915884163</v>
       </c>
       <c r="M85">
-        <v>303.7301094772282</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
+        <v>0.0427522163826222</v>
+      </c>
+      <c r="N85">
+        <v>303.7301094772298</v>
+      </c>
+      <c r="O85">
+        <v>0.001656902776219432</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86">
-        <v>210.8853698704063</v>
+        <v>210.8853698704064</v>
       </c>
       <c r="B86">
-        <v>2256994.252605739</v>
+        <v>2256994.25260576</v>
       </c>
       <c r="C86">
-        <v>1954.325632133227</v>
+        <v>1954.325632133262</v>
       </c>
       <c r="D86">
-        <v>12724.38681359954</v>
+        <v>12724.38681359955</v>
       </c>
       <c r="E86">
-        <v>6629.581041816435</v>
+        <v>6629.581041816415</v>
       </c>
       <c r="F86">
-        <v>5652.085393742209</v>
+        <v>5652.085393742199</v>
       </c>
       <c r="G86">
-        <v>7.088044934327984</v>
+        <v>7.088044934327957</v>
       </c>
       <c r="H86">
-        <v>85.75393237634033</v>
+        <v>85.75393237634005</v>
       </c>
       <c r="I86">
-        <v>2.917951947563697E-08</v>
+        <v>2.917951947563677E-08</v>
       </c>
       <c r="J86">
-        <v>8.552409582996499E-09</v>
+        <v>8.552409582996498E-09</v>
       </c>
       <c r="K86">
-        <v>0.000109752963427804</v>
+        <v>0.0001097529634278043</v>
       </c>
       <c r="L86">
-        <v>0.04339074697803438</v>
+        <v>0.04339074697803445</v>
       </c>
       <c r="M86">
-        <v>293.699462915394</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
+        <v>0.0416715532014973</v>
+      </c>
+      <c r="N86">
+        <v>293.6994629153947</v>
+      </c>
+      <c r="O86">
+        <v>0.001719193776537145</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87">
         <v>212.1255994197185</v>
       </c>
       <c r="B87">
-        <v>2348438.179028851</v>
+        <v>2348438.17902892</v>
       </c>
       <c r="C87">
-        <v>2060.896483575306</v>
+        <v>2060.896483575432</v>
       </c>
       <c r="D87">
-        <v>12559.30350058334</v>
+        <v>12559.30350058338</v>
       </c>
       <c r="E87">
-        <v>6443.559883481797</v>
+        <v>6443.559883481706</v>
       </c>
       <c r="F87">
-        <v>5491.025185710572</v>
+        <v>5491.025185710523</v>
       </c>
       <c r="G87">
-        <v>7.240251334237779</v>
+        <v>7.240251334237686</v>
       </c>
       <c r="H87">
-        <v>90.04753118078065</v>
+        <v>90.04753118077888</v>
       </c>
       <c r="I87">
-        <v>3.253279486074699E-08</v>
+        <v>3.253279486074577E-08</v>
       </c>
       <c r="J87">
-        <v>8.88607733477672E-09</v>
+        <v>8.886077334776649E-09</v>
       </c>
       <c r="K87">
-        <v>0.0001058309608652315</v>
+        <v>0.0001058309608652325</v>
       </c>
       <c r="L87">
-        <v>0.04237007002714474</v>
+        <v>0.04237007002714503</v>
       </c>
       <c r="M87">
-        <v>283.5910774955717</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13">
+        <v>0.04058648942641388</v>
+      </c>
+      <c r="N87">
+        <v>283.591077495575</v>
+      </c>
+      <c r="O87">
+        <v>0.001783580600731144</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88">
         <v>213.3658289690307</v>
       </c>
       <c r="B88">
-        <v>2442797.970771881</v>
+        <v>2442797.970771919</v>
       </c>
       <c r="C88">
-        <v>2176.001028033257</v>
+        <v>2176.001028033328</v>
       </c>
       <c r="D88">
-        <v>12387.32918290496</v>
+        <v>12387.32918290497</v>
       </c>
       <c r="E88">
-        <v>6247.365746121005</v>
+        <v>6247.365746120941</v>
       </c>
       <c r="F88">
-        <v>5321.958259513704</v>
+        <v>5321.958259513664</v>
       </c>
       <c r="G88">
-        <v>7.404138627015318</v>
+        <v>7.40413862701529</v>
       </c>
       <c r="H88">
-        <v>94.95348344436144</v>
+        <v>94.95348344436039</v>
       </c>
       <c r="I88">
-        <v>3.652409023461042E-08</v>
+        <v>3.652409023460983E-08</v>
       </c>
       <c r="J88">
-        <v>9.239920698070904E-09</v>
+        <v>9.239920698070879E-09</v>
       </c>
       <c r="K88">
-        <v>0.000101921968027551</v>
+        <v>0.0001019219680275512</v>
       </c>
       <c r="L88">
-        <v>0.04134737400390818</v>
+        <v>0.04134737400390825</v>
       </c>
       <c r="M88">
-        <v>273.3948327562074</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13">
+        <v>0.03949718085087698</v>
+      </c>
+      <c r="N88">
+        <v>273.3948327562086</v>
+      </c>
+      <c r="O88">
+        <v>0.001850193153031273</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89">
-        <v>214.6060585183428</v>
+        <v>214.6060585183429</v>
       </c>
       <c r="B89">
-        <v>2540199.00433764</v>
+        <v>2540199.004337674</v>
       </c>
       <c r="C89">
-        <v>2301.037092815834</v>
+        <v>2301.0370928159</v>
       </c>
       <c r="D89">
         <v>12207.67433429577</v>
       </c>
       <c r="E89">
-        <v>6039.546610439779</v>
+        <v>6039.546610439699</v>
       </c>
       <c r="F89">
-        <v>5143.692177043079</v>
+        <v>5143.692177043017</v>
       </c>
       <c r="G89">
-        <v>7.580836441451148</v>
+        <v>7.58083644145118</v>
       </c>
       <c r="H89">
-        <v>100.6282544840808</v>
+        <v>100.628254484081</v>
       </c>
       <c r="I89">
-        <v>4.133614937763211E-08</v>
+        <v>4.133614937763226E-08</v>
       </c>
       <c r="J89">
-        <v>9.616577835564282E-09</v>
+        <v>9.616577835564307E-09</v>
       </c>
       <c r="K89">
-        <v>9.801940601730422E-05</v>
+        <v>9.801940601730402E-05</v>
       </c>
       <c r="L89">
-        <v>0.04032387038499435</v>
+        <v>0.04032387038499431</v>
       </c>
       <c r="M89">
-        <v>263.0990094175924</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
+        <v>0.03840468732463555</v>
+      </c>
+      <c r="N89">
+        <v>263.099009417592</v>
+      </c>
+      <c r="O89">
+        <v>0.001919183060358767</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
       <c r="A90">
-        <v>215.846288067655</v>
+        <v>215.8462880676551</v>
       </c>
       <c r="B90">
-        <v>2640785.677941919</v>
+        <v>2640785.677941903</v>
       </c>
       <c r="C90">
-        <v>2437.779443463176</v>
+        <v>2437.77944346314</v>
       </c>
       <c r="D90">
-        <v>12019.37681644126</v>
+        <v>12019.37681644127</v>
       </c>
       <c r="E90">
-        <v>5818.30394729328</v>
+        <v>5818.303947293322</v>
       </c>
       <c r="F90">
-        <v>4954.739583890578</v>
+        <v>4954.739583890612</v>
       </c>
       <c r="G90">
-        <v>7.771675084307414</v>
+        <v>7.771675084307391</v>
       </c>
       <c r="H90">
-        <v>107.2886305848655</v>
+        <v>107.2886305848644</v>
       </c>
       <c r="I90">
-        <v>4.722587672218175E-08</v>
+        <v>4.722587672218113E-08</v>
       </c>
       <c r="J90">
         <v>1.001928159366343E-08</v>
       </c>
       <c r="K90">
-        <v>9.411574036540276E-05</v>
+        <v>9.411574036540291E-05</v>
       </c>
       <c r="L90">
-        <v>0.03930163794058346</v>
+        <v>0.03930163794058349</v>
       </c>
       <c r="M90">
-        <v>252.6900423645592</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13">
+        <v>0.03731090872811674</v>
+      </c>
+      <c r="N90">
+        <v>252.69004236456</v>
+      </c>
+      <c r="O90">
+        <v>0.001990729212466759</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91">
         <v>217.0865176169672</v>
       </c>
       <c r="B91">
-        <v>2744726.171922524</v>
+        <v>2744726.171922536</v>
       </c>
       <c r="C91">
-        <v>2588.518902115848</v>
+        <v>2588.518902115877</v>
       </c>
       <c r="D91">
-        <v>11821.24227409167</v>
+        <v>11821.24227409169</v>
       </c>
       <c r="E91">
-        <v>5581.377081859801</v>
+        <v>5581.37708185977</v>
       </c>
       <c r="F91">
-        <v>4753.216819002454</v>
+        <v>4753.216819002431</v>
       </c>
       <c r="G91">
-        <v>7.978241869210042</v>
+        <v>7.978241869209994</v>
       </c>
       <c r="H91">
-        <v>115.2429666392824</v>
+        <v>115.2429666392812</v>
       </c>
       <c r="I91">
-        <v>5.456493152899164E-08</v>
+        <v>5.456493152899055E-08</v>
       </c>
       <c r="J91">
-        <v>1.045205988923534E-08</v>
+        <v>1.045205988923529E-08</v>
       </c>
       <c r="K91">
-        <v>9.020205762675329E-05</v>
+        <v>9.020205762675374E-05</v>
       </c>
       <c r="L91">
-        <v>0.03828346676823357</v>
+        <v>0.03828346676823369</v>
       </c>
       <c r="M91">
-        <v>242.1522486896417</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
+        <v>0.03621842140557307</v>
+      </c>
+      <c r="N91">
+        <v>242.1522486896432</v>
+      </c>
+      <c r="O91">
+        <v>0.002065045362660626</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
       <c r="A92">
-        <v>218.3267471662794</v>
+        <v>218.3267471662795</v>
       </c>
       <c r="B92">
-        <v>2852218.625757457</v>
+        <v>2852218.62575752</v>
       </c>
       <c r="C92">
-        <v>2756.26644257519</v>
+        <v>2756.266442575362</v>
       </c>
       <c r="D92">
-        <v>11611.75689799948</v>
+        <v>11611.75689799952</v>
       </c>
       <c r="E92">
-        <v>5325.879400526204</v>
+        <v>5325.879400526062</v>
       </c>
       <c r="F92">
-        <v>4536.69898644426</v>
+        <v>4536.698986444163</v>
       </c>
       <c r="G92">
-        <v>8.202459928191395</v>
+        <v>8.202459928191326</v>
       </c>
       <c r="H92">
-        <v>124.9437535633255</v>
+        <v>124.9437535633216</v>
       </c>
       <c r="I92">
-        <v>6.390944092834216E-08</v>
+        <v>6.390944092833918E-08</v>
       </c>
       <c r="J92">
-        <v>1.092003079408721E-08</v>
+        <v>1.092003079408715E-08</v>
       </c>
       <c r="K92">
-        <v>8.626746143371873E-05</v>
+        <v>8.626746143371949E-05</v>
       </c>
       <c r="L92">
-        <v>0.03727259891958092</v>
+        <v>0.0372725989195811</v>
       </c>
       <c r="M92">
-        <v>231.4675324486574</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13">
+        <v>0.03513020809347814</v>
+      </c>
+      <c r="N92">
+        <v>231.46753244866</v>
+      </c>
+      <c r="O92">
+        <v>0.002142390826102959</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93">
         <v>219.5669767155916</v>
       </c>
       <c r="B93">
-        <v>2963499.143616395</v>
+        <v>2963499.143616477</v>
       </c>
       <c r="C93">
-        <v>2945.057581194818</v>
+        <v>2945.05758119508</v>
       </c>
       <c r="D93">
-        <v>11388.9555833443</v>
+        <v>11388.95558334438</v>
       </c>
       <c r="E93">
-        <v>5048.063873462701</v>
+        <v>5048.063873462486</v>
       </c>
       <c r="F93">
-        <v>4302.010162358849</v>
+        <v>4302.0101623587</v>
       </c>
       <c r="G93">
-        <v>8.446700838482274</v>
+        <v>8.446700838482124</v>
       </c>
       <c r="H93">
-        <v>137.0805071668066</v>
+        <v>137.0805071667985</v>
       </c>
       <c r="I93">
-        <v>7.612586680835114E-08</v>
+        <v>7.612586680834394E-08</v>
       </c>
       <c r="J93">
-        <v>1.142985211781642E-08</v>
+        <v>1.142985211781626E-08</v>
       </c>
       <c r="K93">
-        <v>8.229817687818921E-05</v>
+        <v>8.229817687819067E-05</v>
       </c>
       <c r="L93">
-        <v>0.03627236515493638</v>
+        <v>0.03627236515493675</v>
       </c>
       <c r="M93">
-        <v>220.6150694709102</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
+        <v>0.03404927914937652</v>
+      </c>
+      <c r="N93">
+        <v>220.6150694709154</v>
+      </c>
+      <c r="O93">
+        <v>0.002223086005560231</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94">
         <v>220.8072062649038</v>
       </c>
       <c r="B94">
-        <v>3078852.007863885</v>
+        <v>3078852.007863855</v>
       </c>
       <c r="C94">
-        <v>3160.411567669902</v>
+        <v>3160.411567669785</v>
       </c>
       <c r="D94">
-        <v>11150.21450800564</v>
+        <v>11150.21450800559</v>
       </c>
       <c r="E94">
-        <v>4742.985963693221</v>
+        <v>4742.985963693309</v>
       </c>
       <c r="F94">
-        <v>4044.917502566374</v>
+        <v>4044.917502566438</v>
       </c>
       <c r="G94">
-        <v>8.713950082025724</v>
+        <v>8.713950082025818</v>
       </c>
       <c r="H94">
-        <v>152.7539980865311</v>
+        <v>152.7539980865367</v>
       </c>
       <c r="I94">
-        <v>9.263248416555491E-08</v>
+        <v>9.263248416556029E-08</v>
       </c>
       <c r="J94">
-        <v>1.199043540393583E-08</v>
+        <v>1.199043540393594E-08</v>
       </c>
       <c r="K94">
-        <v>7.827615941692348E-05</v>
+        <v>7.827615941692257E-05</v>
       </c>
       <c r="L94">
-        <v>0.03528571526218546</v>
+        <v>0.03528571526218523</v>
       </c>
       <c r="M94">
-        <v>209.570970625749</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13">
+        <v>0.03297817945662899</v>
+      </c>
+      <c r="N94">
+        <v>209.5709706257462</v>
+      </c>
+      <c r="O94">
+        <v>0.002307535805556239</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
       <c r="A95">
-        <v>222.0474358142159</v>
+        <v>222.047435814216</v>
       </c>
       <c r="B95">
-        <v>3198622.074815264</v>
+        <v>3198622.074815199</v>
       </c>
       <c r="C95">
-        <v>3410.0242407142</v>
+        <v>3410.024240713919</v>
       </c>
       <c r="D95">
-        <v>10891.90745814569</v>
+        <v>10891.90745814559</v>
       </c>
       <c r="E95">
-        <v>4404.022899881546</v>
+        <v>4404.022899881746</v>
       </c>
       <c r="F95">
-        <v>3759.686826337002</v>
+        <v>3759.686826337139</v>
       </c>
       <c r="G95">
-        <v>9.008059806446846</v>
+        <v>9.00805980644704</v>
       </c>
       <c r="H95">
-        <v>173.8282050301181</v>
+        <v>173.8282050301303</v>
       </c>
       <c r="I95">
-        <v>1.158989459073159E-07</v>
+        <v>1.158989459073287E-07</v>
       </c>
       <c r="J95">
-        <v>1.261414074357752E-08</v>
+        <v>1.261414074357774E-08</v>
       </c>
       <c r="K95">
-        <v>7.417680453378363E-05</v>
+        <v>7.417680453378209E-05</v>
       </c>
       <c r="L95">
-        <v>0.03431461670545032</v>
+        <v>0.03431461670544996</v>
       </c>
       <c r="M95">
-        <v>198.30788027303</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13">
+        <v>0.03191834990802406</v>
+      </c>
+      <c r="N95">
+        <v>198.3078802730248</v>
+      </c>
+      <c r="O95">
+        <v>0.002396266797425906</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
       <c r="A96">
-        <v>223.2876653635281</v>
+        <v>223.2876653635282</v>
       </c>
       <c r="B96">
-        <v>3323227.781758</v>
+        <v>3323227.781758057</v>
       </c>
       <c r="C96">
-        <v>3704.790754519964</v>
+        <v>3704.790754520246</v>
       </c>
       <c r="D96">
-        <v>10608.79557844279</v>
+        <v>10608.79557844287</v>
       </c>
       <c r="E96">
-        <v>4022.206485791132</v>
+        <v>4022.206485790934</v>
       </c>
       <c r="F96">
-        <v>3438.450387147469</v>
+        <v>3438.450387147328</v>
       </c>
       <c r="G96">
-        <v>9.334158799273256</v>
+        <v>9.334158799273087</v>
       </c>
       <c r="H96">
-        <v>203.712276941183</v>
+        <v>203.712276941166</v>
       </c>
       <c r="I96">
-        <v>1.505846812482054E-07</v>
+        <v>1.505846812481881E-07</v>
       </c>
       <c r="J96">
-        <v>1.331891843047593E-08</v>
+        <v>1.331891843047576E-08</v>
       </c>
       <c r="K96">
-        <v>6.996487401146166E-05</v>
+        <v>6.996487401146281E-05</v>
       </c>
       <c r="L96">
-        <v>0.03335922288471751</v>
+        <v>0.03335922288471774</v>
       </c>
       <c r="M96">
-        <v>186.7942643680692</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
+        <v>0.03086923225858138</v>
+      </c>
+      <c r="N96">
+        <v>186.7942643680733</v>
+      </c>
+      <c r="O96">
+        <v>0.002489990626136362</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97">
         <v>224.5278949128403</v>
       </c>
       <c r="B97">
-        <v>3453168.599469252</v>
+        <v>3453168.599469376</v>
       </c>
       <c r="C97">
-        <v>4060.233113290892</v>
+        <v>4060.233113291751</v>
       </c>
       <c r="D97">
-        <v>10292.83401624365</v>
+        <v>10292.834016244</v>
       </c>
       <c r="E97">
-        <v>3585.325305613323</v>
+        <v>3585.325305612795</v>
       </c>
       <c r="F97">
-        <v>3070.332498561441</v>
+        <v>3070.332498561064</v>
       </c>
       <c r="G97">
-        <v>9.699385208313572</v>
+        <v>9.699385208312917</v>
       </c>
       <c r="H97">
-        <v>249.3347469222185</v>
+        <v>249.3347469221285</v>
       </c>
       <c r="I97">
-        <v>2.0649204939544E-07</v>
+        <v>2.06492049395337E-07</v>
       </c>
       <c r="J97">
-        <v>1.413252926852577E-08</v>
+        <v>1.413252926852493E-08</v>
       </c>
       <c r="K97">
-        <v>6.55864374133312E-05</v>
+        <v>6.558643741333607E-05</v>
       </c>
       <c r="L97">
-        <v>0.0324165000865056</v>
+        <v>0.03241650008650651</v>
       </c>
       <c r="M97">
-        <v>174.99228375893</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
+        <v>0.02982677581005519</v>
+      </c>
+      <c r="N97">
+        <v>174.9922837589455</v>
+      </c>
+      <c r="O97">
+        <v>0.002589724276451323</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98">
         <v>225.7681244621525</v>
       </c>
       <c r="B98">
-        <v>3589009.671980598</v>
+        <v>3589009.671980707</v>
       </c>
       <c r="C98">
-        <v>4498.424567256448</v>
+        <v>4498.424567257405</v>
       </c>
       <c r="D98">
-        <v>9930.488160230308</v>
+        <v>9930.488160230523</v>
       </c>
       <c r="E98">
-        <v>3076.524222405477</v>
+        <v>3076.524222404865</v>
       </c>
       <c r="F98">
-        <v>2640.100414798767</v>
+        <v>2640.100414798308</v>
       </c>
       <c r="G98">
-        <v>10.11441492903076</v>
+        <v>10.11441492903037</v>
       </c>
       <c r="H98">
-        <v>327.1291512983472</v>
+        <v>327.1291512982475</v>
       </c>
       <c r="I98">
-        <v>3.077876106409222E-07</v>
+        <v>3.077876106408026E-07</v>
       </c>
       <c r="J98">
-        <v>1.51020857848655E-08</v>
+        <v>1.510208578486497E-08</v>
       </c>
       <c r="K98">
-        <v>6.095037803685264E-05</v>
+        <v>6.095037803685536E-05</v>
       </c>
       <c r="L98">
-        <v>0.03147733369012486</v>
+        <v>0.03147733369012534</v>
       </c>
       <c r="M98">
-        <v>162.8496185464831</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
+        <v>0.02878027696623345</v>
+      </c>
+      <c r="N98">
+        <v>162.8496185464922</v>
+      </c>
+      <c r="O98">
+        <v>0.002697056723891885</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99">
-        <v>227.0083540114646</v>
+        <v>227.0083540114647</v>
       </c>
       <c r="B99">
-        <v>3731308.962524974</v>
+        <v>3731308.962524864</v>
       </c>
       <c r="C99">
-        <v>5052.058074698115</v>
+        <v>5052.058074696426</v>
       </c>
       <c r="D99">
-        <v>9495.278255406354</v>
+        <v>9495.278255405685</v>
       </c>
       <c r="E99">
-        <v>2469.847385695605</v>
+        <v>2469.847385696448</v>
       </c>
       <c r="F99">
-        <v>2124.239999146058</v>
+        <v>2124.239999146694</v>
       </c>
       <c r="G99">
-        <v>10.59745391550927</v>
+        <v>10.59745391551031</v>
       </c>
       <c r="H99">
-        <v>487.2916904635281</v>
+        <v>487.2916904640438</v>
       </c>
       <c r="I99">
-        <v>5.316335671558096E-07</v>
+        <v>5.316335671565012E-07</v>
       </c>
       <c r="J99">
-        <v>1.632068615197647E-08</v>
+        <v>1.632068615197828E-08</v>
       </c>
       <c r="K99">
-        <v>5.587594651376284E-05</v>
+        <v>5.587594651375521E-05</v>
       </c>
       <c r="L99">
-        <v>0.03051852786882481</v>
+        <v>0.03051852786882361</v>
       </c>
       <c r="M99">
-        <v>150.265361316945</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
+        <v>0.02770363789270692</v>
+      </c>
+      <c r="N99">
+        <v>150.2653613169231</v>
+      </c>
+      <c r="O99">
+        <v>0.002814889976116695</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100">
         <v>228.2485835607768</v>
       </c>
       <c r="B100">
-        <v>3880456.459098631</v>
+        <v>3880456.459099041</v>
       </c>
       <c r="C100">
-        <v>5787.88506259835</v>
+        <v>5787.885062608061</v>
       </c>
       <c r="D100">
-        <v>8917.955625033092</v>
+        <v>8917.955625037419</v>
       </c>
       <c r="E100">
-        <v>1703.26626821237</v>
+        <v>1703.26626820833</v>
       </c>
       <c r="F100">
-        <v>1467.950116367107</v>
+        <v>1467.950116363955</v>
       </c>
       <c r="G100">
-        <v>11.18883278262733</v>
+        <v>11.1888327826217</v>
       </c>
       <c r="H100">
-        <v>986.7314444947185</v>
+        <v>986.7314444852699</v>
       </c>
       <c r="I100">
-        <v>1.295433053911285E-06</v>
+        <v>1.295433053897043E-06</v>
       </c>
       <c r="J100">
-        <v>1.803508675930476E-08</v>
+        <v>1.803508675929197E-08</v>
       </c>
       <c r="K100">
-        <v>4.988107421450636E-05</v>
+        <v>4.988107421454944E-05</v>
       </c>
       <c r="L100">
-        <v>0.02947066346069424</v>
+        <v>0.02947066346070035</v>
       </c>
       <c r="M100">
-        <v>136.921430137079</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13">
+        <v>0.02652025959861853</v>
+      </c>
+      <c r="N100">
+        <v>136.9214301371825</v>
+      </c>
+      <c r="O100">
+        <v>0.002950403862081819</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101">
         <v>229.488813110089</v>
       </c>
       <c r="B101">
-        <v>4036484.84779364</v>
+        <v>4036484.84547991</v>
       </c>
       <c r="C101">
-        <v>7481.317678984948</v>
+        <v>7481.707748093261</v>
       </c>
       <c r="D101">
-        <v>7485.841431372685</v>
+        <v>7485.465325440022</v>
       </c>
       <c r="E101">
-        <v>2.399587730696672</v>
+        <v>1.99317527563843</v>
       </c>
       <c r="F101">
-        <v>2.073538311111979</v>
+        <v>1.722348429454306</v>
       </c>
       <c r="G101">
-        <v>12.17657839136129</v>
+        <v>12.17671255621559</v>
       </c>
       <c r="H101">
-        <v>10197532.21469833</v>
+        <v>12315483.74169168</v>
       </c>
       <c r="I101">
-        <v>0.01983415592649522</v>
+        <v>0.02395575640065102</v>
       </c>
       <c r="J101">
-        <v>2.289385302199749E-08</v>
+        <v>2.289527672309483E-08</v>
       </c>
       <c r="K101">
-        <v>3.792334402464099E-05</v>
+        <v>3.79206540910645E-05</v>
       </c>
       <c r="L101">
-        <v>0.02756969119289187</v>
+        <v>0.0275692857951763</v>
       </c>
       <c r="M101">
-        <v>118.4296074386462</v>
+        <v>0.02439463457769041</v>
+      </c>
+      <c r="N101">
+        <v>118.4269648272162</v>
+      </c>
+      <c r="O101">
+        <v>0.003174651217485889</v>
       </c>
     </row>
   </sheetData>
